--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,55 +446,130 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Nb</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ti</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Co</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Zr</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
@@ -502,2830 +577,5935 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.45303756381198</v>
+        <v>14.31699359657089</v>
       </c>
       <c r="B2" t="n">
         <v>35.21024747388501</v>
       </c>
       <c r="C2" t="n">
+        <v>45.45303756381198</v>
+      </c>
+      <c r="D2" t="n">
         <v>4.138939456436662</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.8807819092954645</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.31699359657089</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.02253547848829161</v>
       </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
         <v>1943.689937272888</v>
       </c>
-      <c r="H2" t="n">
+      <c r="W2" t="n">
         <v>257.6622314272465</v>
       </c>
-      <c r="I2" t="n">
+      <c r="X2" t="n">
         <v>-6.600670779576464</v>
       </c>
-      <c r="J2" t="n">
+      <c r="Y2" t="n">
         <v>2.725194759728065</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.1294765609887397</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="Z2" t="n">
+        <v>0.1294765609887398</v>
+      </c>
+      <c r="AA2" t="n">
         <v>8.019565087964157</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AB2" t="n">
         <v>1.882782738202394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40.92255698837002</v>
+        <v>15.27891067420843</v>
       </c>
       <c r="B3" t="n">
         <v>36.6201454088738</v>
       </c>
       <c r="C3" t="n">
+        <v>40.92255698837002</v>
+      </c>
+      <c r="D3" t="n">
         <v>5.876322025641183</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.302064902906558</v>
       </c>
-      <c r="E3" t="n">
-        <v>15.27891067420843</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.026945226277379</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.02694522627737901</v>
+      </c>
+      <c r="V3" t="n">
         <v>1965.232211811153</v>
       </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
         <v>272.8648425860655</v>
       </c>
-      <c r="I3" t="n">
-        <v>-6.78435871165528</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="X3" t="n">
+        <v>-6.784358711655282</v>
+      </c>
+      <c r="Y3" t="n">
         <v>3.05867883644598</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Z3" t="n">
         <v>0.1352538527876291</v>
       </c>
-      <c r="L3" t="n">
+      <c r="AA3" t="n">
         <v>7.860844830357834</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AB3" t="n">
         <v>1.882863745105841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37.76174814854082</v>
+        <v>15.85974020072816</v>
       </c>
       <c r="B4" t="n">
         <v>36.64321598420395</v>
       </c>
       <c r="C4" t="n">
+        <v>37.76174814854082</v>
+      </c>
+      <c r="D4" t="n">
         <v>7.80394955983821</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.931346106688842</v>
       </c>
-      <c r="E4" t="n">
-        <v>15.85974020072816</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.03182150005173198</v>
       </c>
-      <c r="G4" t="n">
+      <c r="V4" t="n">
         <v>1982.136990951654</v>
       </c>
-      <c r="H4" t="n">
+      <c r="W4" t="n">
         <v>287.9882959816393</v>
       </c>
-      <c r="I4" t="n">
-        <v>-7.110372733273779</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="X4" t="n">
+        <v>-7.110372733273778</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.472869202386087</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Z4" t="n">
         <v>0.1415133348130074</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AA4" t="n">
         <v>7.745255241435793</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AB4" t="n">
         <v>1.88771008374703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34.64032304241116</v>
+        <v>16.6254486072678</v>
       </c>
       <c r="B5" t="n">
         <v>36.11907612318919</v>
       </c>
       <c r="C5" t="n">
+        <v>34.64032304241116</v>
+      </c>
+      <c r="D5" t="n">
         <v>9.938243812179149</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.676908414952717</v>
       </c>
-      <c r="E5" t="n">
-        <v>16.6254486072678</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03650958141869899</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.03650958141869901</v>
+      </c>
+      <c r="V5" t="n">
         <v>1998.704549708214</v>
       </c>
-      <c r="H5" t="n">
+      <c r="W5" t="n">
         <v>303.2036733109156</v>
       </c>
-      <c r="I5" t="n">
-        <v>-7.448384251476016</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.870669819197706</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="X5" t="n">
+        <v>-7.448384251476015</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.870669819197705</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.1481363288949336</v>
       </c>
-      <c r="L5" t="n">
-        <v>7.632754295458398</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
+        <v>7.632754295458397</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.888592288927109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.01806283446086</v>
+        <v>16.72168606967666</v>
       </c>
       <c r="B6" t="n">
         <v>34.35963304036784</v>
       </c>
       <c r="C6" t="n">
+        <v>32.01806283446086</v>
+      </c>
+      <c r="D6" t="n">
         <v>13.07589480250266</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.824723252991968</v>
       </c>
-      <c r="E6" t="n">
-        <v>16.72168606967666</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.04235576111430078</v>
       </c>
-      <c r="G6" t="n">
+      <c r="V6" t="n">
         <v>2018.214448345743</v>
       </c>
-      <c r="H6" t="n">
-        <v>324.7308784847412</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-8.088070431069367</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.408553128514561</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1577895466199949</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7.522190808934132</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="W6" t="n">
+        <v>324.7308784847411</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-8.088070431069365</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.40855312851456</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1577895466199948</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.522190808934131</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.906034934854781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52.95340249452182</v>
+        <v>17.58023045110392</v>
       </c>
       <c r="B7" t="n">
         <v>25.78737383125358</v>
       </c>
       <c r="C7" t="n">
+        <v>52.95340249452182</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.020229760012374</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.6587634631082945</v>
       </c>
-      <c r="E7" t="n">
-        <v>17.58023045110392</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01965435998709448</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1892.938009525174</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01965435998709447</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1892.938009525173</v>
+      </c>
+      <c r="W7" t="n">
         <v>237.5653691001578</v>
       </c>
-      <c r="I7" t="n">
-        <v>-5.994507720450256</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="X7" t="n">
+        <v>-5.994507720450255</v>
+      </c>
+      <c r="Y7" t="n">
         <v>2.581847742723802</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Z7" t="n">
         <v>0.118462799182464</v>
       </c>
-      <c r="L7" t="n">
-        <v>8.395015690413883</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="AA7" t="n">
+        <v>8.395015690413882</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.794908847638016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48.96939004892192</v>
+        <v>18.57818076528054</v>
       </c>
       <c r="B8" t="n">
         <v>27.91436124376087</v>
       </c>
       <c r="C8" t="n">
+        <v>48.96939004892192</v>
+      </c>
+      <c r="D8" t="n">
         <v>3.715176746073181</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.8228911959634791</v>
       </c>
-      <c r="E8" t="n">
-        <v>18.57818076528054</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.0217918802475133</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
         <v>1909.362930638625</v>
       </c>
-      <c r="H8" t="n">
+      <c r="W8" t="n">
         <v>247.3803952796019</v>
       </c>
-      <c r="I8" t="n">
-        <v>-6.183842717090985</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.759795499553949</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="X8" t="n">
+        <v>-6.183842717090982</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.759795499553948</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.1223855138317489</v>
       </c>
-      <c r="L8" t="n">
-        <v>8.255002054743928</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="AA8" t="n">
+        <v>8.255002054743926</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.81549624662442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.89614162525374</v>
+        <v>19.60838259075554</v>
       </c>
       <c r="B9" t="n">
         <v>29.66754518388709</v>
       </c>
       <c r="C9" t="n">
+        <v>43.89614162525374</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.44038604100223</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.38754455910141</v>
       </c>
-      <c r="E9" t="n">
-        <v>19.60838259075554</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.02725683407173547</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0272568340717355</v>
+      </c>
+      <c r="V9" t="n">
         <v>1932.778266653697</v>
       </c>
-      <c r="H9" t="n">
+      <c r="W9" t="n">
         <v>265.8434854610491</v>
       </c>
-      <c r="I9" t="n">
+      <c r="X9" t="n">
         <v>-6.625733508060049</v>
       </c>
-      <c r="J9" t="n">
+      <c r="Y9" t="n">
         <v>3.244590676251661</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Z9" t="n">
         <v>0.1295903888532182</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AA9" t="n">
         <v>8.071379240315668</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AB9" t="n">
         <v>1.841990243468286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.7223095709536</v>
+        <v>20.10500298210745</v>
       </c>
       <c r="B10" t="n">
         <v>29.98729806356584</v>
       </c>
       <c r="C10" t="n">
+        <v>40.7223095709536</v>
+      </c>
+      <c r="D10" t="n">
         <v>7.226526681518458</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.958862701854644</v>
       </c>
-      <c r="E10" t="n">
-        <v>20.10500298210745</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.0317465603588726</v>
       </c>
-      <c r="G10" t="n">
+      <c r="V10" t="n">
         <v>1949.68899993882</v>
       </c>
-      <c r="H10" t="n">
+      <c r="W10" t="n">
         <v>282.152996096776</v>
       </c>
-      <c r="I10" t="n">
-        <v>-7.013371196182618</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.63603906421679</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="X10" t="n">
+        <v>-7.013371196182621</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.636039064216791</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.1358791131797596</v>
       </c>
-      <c r="L10" t="n">
-        <v>7.954126347312226</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
+        <v>7.954126347312227</v>
+      </c>
+      <c r="AB10" t="n">
         <v>1.858662341015401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36.74628169506838</v>
+        <v>20.82282672295324</v>
       </c>
       <c r="B11" t="n">
         <v>29.84803147986053</v>
       </c>
       <c r="C11" t="n">
+        <v>36.74628169506838</v>
+      </c>
+      <c r="D11" t="n">
         <v>9.683662142563847</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2.899197959554011</v>
       </c>
-      <c r="E11" t="n">
-        <v>20.82282672295324</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.03747469633312293</v>
       </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
         <v>1970.837222367484</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>301.8142356671538</v>
       </c>
-      <c r="I11" t="n">
-        <v>-7.569709028266012</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="X11" t="n">
+        <v>-7.569709028266014</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.14684298561076</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Z11" t="n">
         <v>0.144266728071026</v>
       </c>
-      <c r="L11" t="n">
-        <v>7.803943277815691</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="AA11" t="n">
+        <v>7.803943277815693</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.876353876773989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33.80936172608322</v>
+        <v>21.05931589769223</v>
       </c>
       <c r="B12" t="n">
         <v>29.32188193594872</v>
       </c>
       <c r="C12" t="n">
+        <v>33.80936172608322</v>
+      </c>
+      <c r="D12" t="n">
         <v>11.33506169200627</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>4.474378748269556</v>
       </c>
-      <c r="E12" t="n">
-        <v>21.05931589769223</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.04388062762971051</v>
       </c>
-      <c r="G12" t="n">
+      <c r="V12" t="n">
         <v>1984.893645274819</v>
       </c>
-      <c r="H12" t="n">
+      <c r="W12" t="n">
         <v>312.7912526964028</v>
       </c>
-      <c r="I12" t="n">
-        <v>-8.544522616153614</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="X12" t="n">
+        <v>-8.544522616153612</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.828722472818985</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Z12" t="n">
         <v>0.1518851483776252</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AA12" t="n">
         <v>7.661042526388837</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AB12" t="n">
         <v>1.913479908641325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30.80309232937815</v>
+        <v>21.38449445236935</v>
       </c>
       <c r="B13" t="n">
         <v>26.75493744727493</v>
       </c>
       <c r="C13" t="n">
+        <v>30.80309232937815</v>
+      </c>
+      <c r="D13" t="n">
         <v>14.61315841043162</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>6.444317360545956</v>
       </c>
-      <c r="E13" t="n">
-        <v>21.38449445236935</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.05066928667504613</v>
       </c>
-      <c r="G13" t="n">
+      <c r="V13" t="n">
         <v>2003.518849764438</v>
       </c>
-      <c r="H13" t="n">
+      <c r="W13" t="n">
         <v>335.0663881607878</v>
       </c>
-      <c r="I13" t="n">
-        <v>-9.696165162328285</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.529627551909937</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1630674105518074</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.518731247211836</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="X13" t="n">
+        <v>-9.696165162328283</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.529627551909936</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1630674105518073</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.518731247211837</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1.953826742856776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>60.47274407694169</v>
+        <v>19.79697020692051</v>
       </c>
       <c r="B14" t="n">
         <v>17.07053042259378</v>
       </c>
       <c r="C14" t="n">
+        <v>60.47274407694169</v>
+      </c>
+      <c r="D14" t="n">
         <v>2.127756037006</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.5319992565380067</v>
       </c>
-      <c r="E14" t="n">
-        <v>19.79697020692051</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.01739704546744002</v>
       </c>
-      <c r="G14" t="n">
-        <v>1846.004872720976</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
+        <v>1846.004872720977</v>
+      </c>
+      <c r="W14" t="n">
         <v>208.545571495524</v>
       </c>
-      <c r="I14" t="n">
-        <v>-5.094679961225654</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="X14" t="n">
+        <v>-5.094679961225656</v>
+      </c>
+      <c r="Y14" t="n">
         <v>2.418353126284907</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.1040068291739515</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.753101635493772</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="Z14" t="n">
+        <v>0.1040068291739516</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.753101635493774</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.642333751820618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>55.11019986941908</v>
+        <v>21.48203443327129</v>
       </c>
       <c r="B15" t="n">
         <v>19.81963700745474</v>
       </c>
       <c r="C15" t="n">
+        <v>55.11019986941908</v>
+      </c>
+      <c r="D15" t="n">
         <v>2.952438189314062</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.6356905005408267</v>
       </c>
-      <c r="E15" t="n">
-        <v>21.48203443327129</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01947690848130698</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01947690848130699</v>
+      </c>
+      <c r="V15" t="n">
         <v>1866.941193872086</v>
       </c>
-      <c r="H15" t="n">
-        <v>226.0261257366551</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-5.441412868137491</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.569150380285395</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="W15" t="n">
+        <v>226.026125736655</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-5.44141286813749</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.569150380285394</v>
+      </c>
+      <c r="Z15" t="n">
         <v>0.1104513402409985</v>
       </c>
-      <c r="L15" t="n">
-        <v>8.572316199529585</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="AA15" t="n">
+        <v>8.572316199529583</v>
+      </c>
+      <c r="AB15" t="n">
         <v>1.698161567663727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>49.48554879162086</v>
+        <v>22.47631622738632</v>
       </c>
       <c r="B16" t="n">
         <v>21.10763041551644</v>
       </c>
       <c r="C16" t="n">
+        <v>49.48554879162086</v>
+      </c>
+      <c r="D16" t="n">
         <v>5.80868725953725</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.121817305939112</v>
       </c>
-      <c r="E16" t="n">
-        <v>22.47631622738632</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02614807216016997</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.02614807216016998</v>
+      </c>
+      <c r="V16" t="n">
         <v>1896.591610650031</v>
       </c>
-      <c r="H16" t="n">
-        <v>262.9862156880843</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-6.066504624882787</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.110339246432171</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="W16" t="n">
+        <v>262.9862156880844</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-6.066504624882788</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.110339246432172</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.1214845237525694</v>
       </c>
-      <c r="L16" t="n">
+      <c r="AA16" t="n">
         <v>8.380020178311289</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AB16" t="n">
         <v>1.757842370440394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>46.36788004968805</v>
+        <v>24.35763244318183</v>
       </c>
       <c r="B17" t="n">
         <v>23.1342762500515</v>
       </c>
       <c r="C17" t="n">
+        <v>46.36788004968805</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.638314862611241</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.50189639446737</v>
       </c>
-      <c r="E17" t="n">
-        <v>24.35763244318183</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.02740953437875311</v>
       </c>
-      <c r="G17" t="n">
-        <v>1899.607557974004</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
+        <v>1899.607557974005</v>
+      </c>
+      <c r="W17" t="n">
         <v>250.33118776717</v>
       </c>
-      <c r="I17" t="n">
+      <c r="X17" t="n">
         <v>-6.338153193151018</v>
       </c>
-      <c r="J17" t="n">
+      <c r="Y17" t="n">
         <v>3.397307173723182</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Z17" t="n">
         <v>0.1213911037671031</v>
       </c>
-      <c r="L17" t="n">
+      <c r="AA17" t="n">
         <v>8.2672917255691</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AB17" t="n">
         <v>1.774013157089227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41.97813069728873</v>
+        <v>25.62064236797445</v>
       </c>
       <c r="B18" t="n">
         <v>24.03624459585487</v>
       </c>
       <c r="C18" t="n">
+        <v>41.97813069728873</v>
+      </c>
+      <c r="D18" t="n">
         <v>6.326179121394539</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2.038803217487418</v>
       </c>
-      <c r="E18" t="n">
-        <v>25.62064236797445</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0316784625857767</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.03167846258577671</v>
+      </c>
+      <c r="V18" t="n">
         <v>1918.914538936323</v>
       </c>
-      <c r="H18" t="n">
-        <v>268.6088083257905</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="W18" t="n">
+        <v>268.6088083257904</v>
+      </c>
+      <c r="X18" t="n">
         <v>-6.728312662984566</v>
       </c>
-      <c r="J18" t="n">
+      <c r="Y18" t="n">
         <v>3.750063930849105</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Z18" t="n">
         <v>0.1280679896451321</v>
       </c>
-      <c r="L18" t="n">
+      <c r="AA18" t="n">
         <v>8.116719928551362</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AB18" t="n">
         <v>1.796536213617284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38.37767536798972</v>
+        <v>25.92967709475499</v>
       </c>
       <c r="B19" t="n">
         <v>24.05215305523166</v>
       </c>
       <c r="C19" t="n">
+        <v>38.37767536798972</v>
+      </c>
+      <c r="D19" t="n">
         <v>8.241916587025901</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.39857789499773</v>
       </c>
-      <c r="E19" t="n">
-        <v>25.92967709475499</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.03883073678720242</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1936.944520901956</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.03883073678720245</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1936.944520901957</v>
+      </c>
+      <c r="W19" t="n">
         <v>286.114727429456</v>
       </c>
-      <c r="I19" t="n">
-        <v>-7.752075638070176</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="X19" t="n">
+        <v>-7.752075638070175</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.499828510959734</v>
       </c>
-      <c r="K19" t="n">
+      <c r="Z19" t="n">
         <v>0.1371385668757474</v>
       </c>
-      <c r="L19" t="n">
+      <c r="AA19" t="n">
         <v>7.957869280171375</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AB19" t="n">
         <v>1.849247090506852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>34.94838751010904</v>
+        <v>26.19588155013293</v>
       </c>
       <c r="B20" t="n">
         <v>23.85042246394621</v>
       </c>
       <c r="C20" t="n">
+        <v>34.94838751010904</v>
+      </c>
+      <c r="D20" t="n">
         <v>10.21302186693367</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>4.79228660887816</v>
       </c>
-      <c r="E20" t="n">
-        <v>26.19588155013293</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.04461186343544309</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.04461186343544311</v>
+      </c>
+      <c r="V20" t="n">
         <v>1954.568006482204</v>
       </c>
-      <c r="H20" t="n">
+      <c r="W20" t="n">
         <v>302.1329935124126</v>
       </c>
-      <c r="I20" t="n">
-        <v>-8.660219988523377</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.066392016039307</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="X20" t="n">
+        <v>-8.660219988523375</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5.066392016039306</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.1457353177332849</v>
       </c>
-      <c r="L20" t="n">
+      <c r="AA20" t="n">
         <v>7.803526696195461</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AB20" t="n">
         <v>1.889766506706896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.94339759241375</v>
+        <v>25.87267490890685</v>
       </c>
       <c r="B21" t="n">
         <v>22.74622041857604</v>
       </c>
       <c r="C21" t="n">
+        <v>31.94339759241375</v>
+      </c>
+      <c r="D21" t="n">
         <v>12.21093470231118</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>7.226772377792192</v>
       </c>
-      <c r="E21" t="n">
-        <v>25.87267490890685</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.05198665350521549</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.05198665350521548</v>
+      </c>
+      <c r="V21" t="n">
         <v>1969.978709878658</v>
       </c>
-      <c r="H21" t="n">
+      <c r="W21" t="n">
         <v>316.0498125581364</v>
       </c>
-      <c r="I21" t="n">
+      <c r="X21" t="n">
         <v>-10.21091531625622</v>
       </c>
-      <c r="J21" t="n">
+      <c r="Y21" t="n">
         <v>5.86883370797833</v>
       </c>
-      <c r="K21" t="n">
+      <c r="Z21" t="n">
         <v>0.1562375522813785</v>
       </c>
-      <c r="L21" t="n">
+      <c r="AA21" t="n">
         <v>7.625784978425697</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.958545681888617</v>
+      <c r="AB21" t="n">
+        <v>1.958545681888618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>27.80452469764478</v>
+        <v>24.64055238634836</v>
       </c>
       <c r="B22" t="n">
         <v>21.25274882503955</v>
       </c>
       <c r="C22" t="n">
+        <v>27.80452469764478</v>
+      </c>
+      <c r="D22" t="n">
         <v>15.57085157182014</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>10.73132251914715</v>
       </c>
-      <c r="E22" t="n">
-        <v>24.64055238634836</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.05985793982608022</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.05985793982608023</v>
+      </c>
+      <c r="V22" t="n">
         <v>1996.200713394664</v>
       </c>
-      <c r="H22" t="n">
+      <c r="W22" t="n">
         <v>337.7521210642616</v>
       </c>
-      <c r="I22" t="n">
+      <c r="X22" t="n">
         <v>-12.06417246312632</v>
       </c>
-      <c r="J22" t="n">
-        <v>6.669299994840343</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="Y22" t="n">
+        <v>6.669299994840346</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.1714788632028532</v>
       </c>
-      <c r="L22" t="n">
-        <v>7.361850390881772</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="AA22" t="n">
+        <v>7.361850390881773</v>
+      </c>
+      <c r="AB22" t="n">
         <v>2.03318915807749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>59.78605265772893</v>
+        <v>24.69862396067251</v>
       </c>
       <c r="B23" t="n">
         <v>12.94677360981414</v>
       </c>
       <c r="C23" t="n">
+        <v>59.78605265772893</v>
+      </c>
+      <c r="D23" t="n">
         <v>2.071458063168219</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>0.4970917086162015</v>
       </c>
-      <c r="E23" t="n">
-        <v>24.69862396067251</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.01703421361986344</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>1829.432936207961</v>
       </c>
-      <c r="H23" t="n">
+      <c r="W23" t="n">
         <v>194.5359229531003</v>
       </c>
-      <c r="I23" t="n">
-        <v>-4.517885222436832</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="X23" t="n">
+        <v>-4.517885222436833</v>
+      </c>
+      <c r="Y23" t="n">
         <v>2.342413511136046</v>
       </c>
-      <c r="K23" t="n">
+      <c r="Z23" t="n">
         <v>0.09543470603399078</v>
       </c>
-      <c r="L23" t="n">
-        <v>8.835047045046412</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="AA23" t="n">
+        <v>8.835047045046414</v>
+      </c>
+      <c r="AB23" t="n">
         <v>1.535777422704193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>55.25597239681475</v>
+        <v>27.11629087610016</v>
       </c>
       <c r="B24" t="n">
         <v>14.62169899185692</v>
       </c>
       <c r="C24" t="n">
+        <v>55.25597239681475</v>
+      </c>
+      <c r="D24" t="n">
         <v>2.295733512731911</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0.7103042224962675</v>
       </c>
-      <c r="E24" t="n">
-        <v>27.11629087610016</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.01938512517788404</v>
       </c>
-      <c r="G24" t="n">
+      <c r="V24" t="n">
         <v>1841.633143209984</v>
       </c>
-      <c r="H24" t="n">
+      <c r="W24" t="n">
         <v>202.3816663890206</v>
       </c>
-      <c r="I24" t="n">
+      <c r="X24" t="n">
         <v>-4.884745617838008</v>
       </c>
-      <c r="J24" t="n">
+      <c r="Y24" t="n">
         <v>2.632730186938086</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.09994899088701827</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.694488378477923</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.583615007422299</v>
+      <c r="Z24" t="n">
+        <v>0.09994899088701825</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8.694488378477924</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.5836150074223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50.35327831911562</v>
+        <v>28.97995691733995</v>
       </c>
       <c r="B25" t="n">
         <v>16.44395713812345</v>
       </c>
       <c r="C25" t="n">
+        <v>50.35327831911562</v>
+      </c>
+      <c r="D25" t="n">
         <v>3.185006375350623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.03780125007036</v>
       </c>
-      <c r="E25" t="n">
-        <v>28.97995691733995</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.02307664646754815</v>
       </c>
-      <c r="G25" t="n">
+      <c r="V25" t="n">
         <v>1859.242021620291</v>
       </c>
-      <c r="H25" t="n">
+      <c r="W25" t="n">
         <v>219.6686467883856</v>
       </c>
-      <c r="I25" t="n">
-        <v>-5.34223457073141</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="X25" t="n">
+        <v>-5.342234570731408</v>
+      </c>
+      <c r="Y25" t="n">
         <v>2.988762674433695</v>
       </c>
-      <c r="K25" t="n">
+      <c r="Z25" t="n">
         <v>0.1065652409568925</v>
       </c>
-      <c r="L25" t="n">
-        <v>8.532157437481349</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="AA25" t="n">
+        <v>8.53215743748135</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.636501504486467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46.34859570643516</v>
+        <v>30.34265377319738</v>
       </c>
       <c r="B26" t="n">
         <v>17.80474339614692</v>
       </c>
       <c r="C26" t="n">
+        <v>46.34859570643516</v>
+      </c>
+      <c r="D26" t="n">
         <v>4.073004266397291</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.431002857823243</v>
       </c>
-      <c r="E26" t="n">
-        <v>30.34265377319738</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.02660818647152365</v>
       </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
         <v>1874.369014877993</v>
       </c>
-      <c r="H26" t="n">
+      <c r="W26" t="n">
         <v>233.7827750446807</v>
       </c>
-      <c r="I26" t="n">
-        <v>-5.757498915755456</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="X26" t="n">
+        <v>-5.757498915755457</v>
+      </c>
+      <c r="Y26" t="n">
         <v>3.326658615019689</v>
       </c>
-      <c r="K26" t="n">
+      <c r="Z26" t="n">
         <v>0.112260311158507</v>
       </c>
-      <c r="L26" t="n">
-        <v>8.394800376906851</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="AA26" t="n">
+        <v>8.394800376906852</v>
+      </c>
+      <c r="AB26" t="n">
         <v>1.675082869941759</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42.40093148684115</v>
+        <v>31.86528713449996</v>
       </c>
       <c r="B27" t="n">
         <v>18.23696715878395</v>
       </c>
       <c r="C27" t="n">
+        <v>42.40093148684115</v>
+      </c>
+      <c r="D27" t="n">
         <v>5.290206015657255</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>2.206608204217674</v>
       </c>
-      <c r="E27" t="n">
-        <v>31.86528713449996</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.03193803030454426</v>
       </c>
-      <c r="G27" t="n">
+      <c r="V27" t="n">
         <v>1888.522296876517</v>
       </c>
-      <c r="H27" t="n">
-        <v>248.7015154097845</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="W27" t="n">
+        <v>248.7015154097846</v>
+      </c>
+      <c r="X27" t="n">
         <v>-6.405330687502009</v>
       </c>
-      <c r="J27" t="n">
+      <c r="Y27" t="n">
         <v>3.86801246377312</v>
       </c>
-      <c r="K27" t="n">
+      <c r="Z27" t="n">
         <v>0.1188191128917422</v>
       </c>
-      <c r="L27" t="n">
+      <c r="AA27" t="n">
         <v>8.257133996825495</v>
       </c>
-      <c r="M27" t="n">
+      <c r="AB27" t="n">
         <v>1.715493650301267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>38.63291780669091</v>
+        <v>31.70139237157215</v>
       </c>
       <c r="B28" t="n">
         <v>19.10423570636226</v>
       </c>
       <c r="C28" t="n">
+        <v>38.63291780669091</v>
+      </c>
+      <c r="D28" t="n">
         <v>7.016579441970052</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>3.544874673404641</v>
       </c>
-      <c r="E28" t="n">
-        <v>31.70139237157215</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.03889647897676301</v>
       </c>
-      <c r="G28" t="n">
+      <c r="V28" t="n">
         <v>1908.625083921418</v>
       </c>
-      <c r="H28" t="n">
-        <v>268.3262209995151</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="W28" t="n">
+        <v>268.3262209995152</v>
+      </c>
+      <c r="X28" t="n">
         <v>-7.528630542893998</v>
       </c>
-      <c r="J28" t="n">
+      <c r="Y28" t="n">
         <v>4.589834679450541</v>
       </c>
-      <c r="K28" t="n">
+      <c r="Z28" t="n">
         <v>0.1290665430053385</v>
       </c>
-      <c r="L28" t="n">
-        <v>8.079933631752702</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="AA28" t="n">
+        <v>8.079933631752704</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.788739041612613</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35.29946336459976</v>
+        <v>31.7420363140709</v>
       </c>
       <c r="B29" t="n">
         <v>19.34137208626396</v>
       </c>
       <c r="C29" t="n">
+        <v>35.29946336459976</v>
+      </c>
+      <c r="D29" t="n">
         <v>8.488290469014574</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>5.128837766050812</v>
       </c>
-      <c r="E29" t="n">
-        <v>31.7420363140709</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.04509242286438606</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.04509242286438607</v>
+      </c>
+      <c r="V29" t="n">
         <v>1924.534454712694</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>282.1894380959296</v>
       </c>
-      <c r="I29" t="n">
+      <c r="X29" t="n">
         <v>-8.668713231012978</v>
       </c>
-      <c r="J29" t="n">
+      <c r="Y29" t="n">
         <v>5.222827047467528</v>
       </c>
-      <c r="K29" t="n">
+      <c r="Z29" t="n">
         <v>0.1379805743975732</v>
       </c>
-      <c r="L29" t="n">
+      <c r="AA29" t="n">
         <v>7.915605804901404</v>
       </c>
-      <c r="M29" t="n">
+      <c r="AB29" t="n">
         <v>1.850493355719852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.12872020698693</v>
+        <v>30.76237588603813</v>
       </c>
       <c r="B30" t="n">
         <v>18.31664101925855</v>
       </c>
       <c r="C30" t="n">
+        <v>32.12872020698693</v>
+      </c>
+      <c r="D30" t="n">
         <v>11.0502077792672</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>7.742055108449174</v>
       </c>
-      <c r="E30" t="n">
-        <v>30.76237588603813</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>0.05304218528784226</v>
       </c>
-      <c r="G30" t="n">
+      <c r="V30" t="n">
         <v>1944.45525054741</v>
       </c>
-      <c r="H30" t="n">
+      <c r="W30" t="n">
         <v>303.655158994235</v>
       </c>
-      <c r="I30" t="n">
+      <c r="X30" t="n">
         <v>-10.45824427832613</v>
       </c>
-      <c r="J30" t="n">
+      <c r="Y30" t="n">
         <v>6.059471159808631</v>
       </c>
-      <c r="K30" t="n">
+      <c r="Z30" t="n">
         <v>0.1511517078432263</v>
       </c>
-      <c r="L30" t="n">
-        <v>7.718060858733409</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="AA30" t="n">
+        <v>7.718060858733408</v>
+      </c>
+      <c r="AB30" t="n">
         <v>1.941272622660873</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28.51150635643484</v>
+        <v>29.73442789455431</v>
       </c>
       <c r="B31" t="n">
         <v>17.25824278002907</v>
       </c>
       <c r="C31" t="n">
+        <v>28.51150635643484</v>
+      </c>
+      <c r="D31" t="n">
         <v>12.65461180418959</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>11.8412111647922</v>
       </c>
-      <c r="E31" t="n">
-        <v>29.73442789455431</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.06136890664099685</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.06136890664099688</v>
+      </c>
+      <c r="V31" t="n">
         <v>1959.846181129472</v>
       </c>
-      <c r="H31" t="n">
+      <c r="W31" t="n">
         <v>313.2213556904683</v>
       </c>
-      <c r="I31" t="n">
+      <c r="X31" t="n">
         <v>-12.78837389426011</v>
       </c>
-      <c r="J31" t="n">
-        <v>6.949359547274405</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.1642509978251736</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7.453239485040996</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.045982747978779</v>
+      <c r="Y31" t="n">
+        <v>6.949359547274402</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.1642509978251735</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.453239485040992</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2.045982747978778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>57.91933065856235</v>
+        <v>30.37782838567884</v>
       </c>
       <c r="B32" t="n">
         <v>9.609360149062256</v>
       </c>
       <c r="C32" t="n">
+        <v>57.91933065856235</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.589063142119515</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.5044176645770377</v>
       </c>
-      <c r="E32" t="n">
-        <v>30.37782838567884</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>0.01642425646165967</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>1814.229384283334</v>
       </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
         <v>172.1043267389533</v>
       </c>
-      <c r="I32" t="n">
+      <c r="X32" t="n">
         <v>-4.028868396605834</v>
       </c>
-      <c r="J32" t="n">
+      <c r="Y32" t="n">
         <v>2.290221615134703</v>
       </c>
-      <c r="K32" t="n">
+      <c r="Z32" t="n">
         <v>0.08608831927901155</v>
       </c>
-      <c r="L32" t="n">
-        <v>8.877229809856251</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="AA32" t="n">
+        <v>8.877229809856253</v>
+      </c>
+      <c r="AB32" t="n">
         <v>1.433340635221596</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>52.9251697901506</v>
+        <v>33.11659379389907</v>
       </c>
       <c r="B33" t="n">
         <v>10.973333777346</v>
       </c>
       <c r="C33" t="n">
+        <v>52.9251697901506</v>
+      </c>
+      <c r="D33" t="n">
         <v>2.192065154734242</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.7928374838700868</v>
       </c>
-      <c r="E33" t="n">
-        <v>33.11659379389907</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.02005287698639604</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1828.174076480355</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.02005287698639602</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1828.174076480354</v>
+      </c>
+      <c r="W33" t="n">
         <v>187.8867026100067</v>
       </c>
-      <c r="I33" t="n">
+      <c r="X33" t="n">
         <v>-4.483383626027237</v>
       </c>
-      <c r="J33" t="n">
+      <c r="Y33" t="n">
         <v>2.675542255443848</v>
       </c>
-      <c r="K33" t="n">
+      <c r="Z33" t="n">
         <v>0.0923369200142214</v>
       </c>
-      <c r="L33" t="n">
-        <v>8.727387485378392</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="AA33" t="n">
+        <v>8.727387485378394</v>
+      </c>
+      <c r="AB33" t="n">
         <v>1.49184845250026</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48.28190961500265</v>
+        <v>35.40504769440309</v>
       </c>
       <c r="B34" t="n">
         <v>12.25967062301765</v>
       </c>
       <c r="C34" t="n">
+        <v>48.28190961500265</v>
+      </c>
+      <c r="D34" t="n">
         <v>2.949080621569796</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.104291446006826</v>
       </c>
-      <c r="E34" t="n">
-        <v>35.40504769440309</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.02340667151348476</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.02340667151348477</v>
+      </c>
+      <c r="V34" t="n">
         <v>1842.53899141852</v>
       </c>
-      <c r="H34" t="n">
+      <c r="W34" t="n">
         <v>203.9119805416204</v>
       </c>
-      <c r="I34" t="n">
-        <v>-4.879964777771953</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="X34" t="n">
+        <v>-4.879964777771954</v>
+      </c>
+      <c r="Y34" t="n">
         <v>2.9914260627542</v>
       </c>
-      <c r="K34" t="n">
+      <c r="Z34" t="n">
         <v>0.09831534675329141</v>
       </c>
-      <c r="L34" t="n">
+      <c r="AA34" t="n">
         <v>8.584083714612751</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.537891595222003</v>
+      <c r="AB34" t="n">
+        <v>1.537891595222004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>44.21310951760462</v>
+        <v>37.57764389518124</v>
       </c>
       <c r="B35" t="n">
         <v>12.9045729319361</v>
       </c>
       <c r="C35" t="n">
+        <v>44.21310951760462</v>
+      </c>
+      <c r="D35" t="n">
         <v>3.638680888316341</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.665992766961695</v>
       </c>
-      <c r="E35" t="n">
-        <v>37.57764389518124</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.02778607059658024</v>
       </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>1853.772168131376</v>
       </c>
-      <c r="H35" t="n">
+      <c r="W35" t="n">
         <v>215.3435763930484</v>
       </c>
-      <c r="I35" t="n">
-        <v>-5.401715275000321</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="X35" t="n">
+        <v>-5.401715275000322</v>
+      </c>
+      <c r="Y35" t="n">
         <v>3.451649138168169</v>
       </c>
-      <c r="K35" t="n">
+      <c r="Z35" t="n">
         <v>0.1037615697629466</v>
       </c>
-      <c r="L35" t="n">
-        <v>8.455130350823577</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="AA35" t="n">
+        <v>8.455130350823579</v>
+      </c>
+      <c r="AB35" t="n">
         <v>1.578391418888722</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>40.34117942701062</v>
+        <v>38.09115608907656</v>
       </c>
       <c r="B36" t="n">
         <v>14.24077169642902</v>
       </c>
       <c r="C36" t="n">
+        <v>40.34117942701062</v>
+      </c>
+      <c r="D36" t="n">
         <v>4.820091728927136</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>2.50680105855667</v>
       </c>
-      <c r="E36" t="n">
-        <v>38.09115608907656</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.03320309666656895</v>
       </c>
-      <c r="G36" t="n">
+      <c r="V36" t="n">
         <v>1871.328810638551</v>
       </c>
-      <c r="H36" t="n">
-        <v>234.1195505358264</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-6.207548102956127</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.995672476732512</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="W36" t="n">
+        <v>234.1195505358265</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-6.20754810295613</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.995672476732513</v>
+      </c>
+      <c r="Z36" t="n">
         <v>0.1125949163041201</v>
       </c>
-      <c r="L36" t="n">
+      <c r="AA36" t="n">
         <v>8.296085052838539</v>
       </c>
-      <c r="M36" t="n">
+      <c r="AB36" t="n">
         <v>1.646076820663437</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37.73458860799308</v>
+        <v>38.33579750611559</v>
       </c>
       <c r="B37" t="n">
         <v>14.22310473337481</v>
       </c>
       <c r="C37" t="n">
+        <v>37.73458860799308</v>
+      </c>
+      <c r="D37" t="n">
         <v>6.084502628677954</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>3.622006523838574</v>
       </c>
-      <c r="E37" t="n">
-        <v>38.33579750611559</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.03884687487624496</v>
       </c>
-      <c r="G37" t="n">
+      <c r="V37" t="n">
         <v>1883.454069982317</v>
       </c>
-      <c r="H37" t="n">
+      <c r="W37" t="n">
         <v>249.5231895669747</v>
       </c>
-      <c r="I37" t="n">
-        <v>-7.149269888331516</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.580602116731222</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="X37" t="n">
+        <v>-7.149269888331517</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4.580602116731223</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.1204672738191375</v>
       </c>
-      <c r="L37" t="n">
-        <v>8.1775226977486</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="AA37" t="n">
+        <v>8.177522697748598</v>
+      </c>
+      <c r="AB37" t="n">
         <v>1.706887303940507</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34.00711535766091</v>
+        <v>37.89528654115976</v>
       </c>
       <c r="B38" t="n">
         <v>15.01810551709215</v>
       </c>
       <c r="C38" t="n">
+        <v>34.00711535766091</v>
+      </c>
+      <c r="D38" t="n">
         <v>7.695501594568473</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>5.383990989518713</v>
       </c>
-      <c r="E38" t="n">
-        <v>37.89528654115976</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>0.04571517909500261</v>
       </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
         <v>1903.055727052831</v>
       </c>
-      <c r="H38" t="n">
+      <c r="W38" t="n">
         <v>267.955517596444</v>
       </c>
-      <c r="I38" t="n">
-        <v>-8.499983747448452</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.257125421822824</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="X38" t="n">
+        <v>-8.499983747448454</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>5.257125421822825</v>
+      </c>
+      <c r="Z38" t="n">
         <v>0.1317698614362234</v>
       </c>
-      <c r="L38" t="n">
-        <v>7.983231044902071</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="AA38" t="n">
+        <v>7.983231044902072</v>
+      </c>
+      <c r="AB38" t="n">
         <v>1.793112124583807</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>31.37594742238257</v>
+        <v>37.04916938976096</v>
       </c>
       <c r="B39" t="n">
         <v>14.93908228947561</v>
       </c>
       <c r="C39" t="n">
+        <v>31.37594742238257</v>
+      </c>
+      <c r="D39" t="n">
         <v>8.703754693933551</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>7.93204620444731</v>
       </c>
-      <c r="E39" t="n">
-        <v>37.04916938976096</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.05292177768615149</v>
       </c>
-      <c r="G39" t="n">
+      <c r="V39" t="n">
         <v>1915.270699666103</v>
       </c>
-      <c r="H39" t="n">
+      <c r="W39" t="n">
         <v>276.8059324216907</v>
       </c>
-      <c r="I39" t="n">
+      <c r="X39" t="n">
         <v>-10.28152875885367</v>
       </c>
-      <c r="J39" t="n">
+      <c r="Y39" t="n">
         <v>6.021516298486138</v>
       </c>
-      <c r="K39" t="n">
+      <c r="Z39" t="n">
         <v>0.1421670544178495</v>
       </c>
-      <c r="L39" t="n">
-        <v>7.799204875257919</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="AA39" t="n">
+        <v>7.799204875257918</v>
+      </c>
+      <c r="AB39" t="n">
         <v>1.891498966762572</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28.41328965570146</v>
+        <v>35.00856026880581</v>
       </c>
       <c r="B40" t="n">
         <v>13.49101090758822</v>
       </c>
       <c r="C40" t="n">
+        <v>28.41328965570146</v>
+      </c>
+      <c r="D40" t="n">
         <v>10.74232139561721</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>12.34481777228729</v>
       </c>
-      <c r="E40" t="n">
-        <v>35.00856026880581</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.06203850431051615</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.06203850431051611</v>
+      </c>
+      <c r="V40" t="n">
         <v>1931.991337486817</v>
       </c>
-      <c r="H40" t="n">
-        <v>292.9426643223442</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="W40" t="n">
+        <v>292.9426643223443</v>
+      </c>
+      <c r="X40" t="n">
         <v>-13.03630535919964</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.993463708553957</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="Y40" t="n">
+        <v>6.993463708553959</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.1579263444042211</v>
       </c>
-      <c r="L40" t="n">
+      <c r="AA40" t="n">
         <v>7.536729373264516</v>
       </c>
-      <c r="M40" t="n">
+      <c r="AB40" t="n">
         <v>2.030469900039257</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>53.11798962683208</v>
+        <v>37.58863922492247</v>
       </c>
       <c r="B41" t="n">
         <v>7.280669539785599</v>
       </c>
       <c r="C41" t="n">
+        <v>53.11798962683208</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.532428398584247</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0.4802732098756072</v>
       </c>
-      <c r="E41" t="n">
-        <v>37.58863922492247</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>0.01611792915068352</v>
       </c>
-      <c r="G41" t="n">
+      <c r="V41" t="n">
         <v>1808.239641107628</v>
       </c>
-      <c r="H41" t="n">
+      <c r="W41" t="n">
         <v>159.2970297831138</v>
       </c>
-      <c r="I41" t="n">
+      <c r="X41" t="n">
         <v>-3.636299676179426</v>
       </c>
-      <c r="J41" t="n">
+      <c r="Y41" t="n">
         <v>2.152628046095119</v>
       </c>
-      <c r="K41" t="n">
+      <c r="Z41" t="n">
         <v>0.07917362595361378</v>
       </c>
-      <c r="L41" t="n">
-        <v>8.835891679616505</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="AA41" t="n">
+        <v>8.835891679616507</v>
+      </c>
+      <c r="AB41" t="n">
         <v>1.3515369856457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>48.6819596677876</v>
+        <v>40.4685427958547</v>
       </c>
       <c r="B42" t="n">
         <v>8.207754828513329</v>
       </c>
       <c r="C42" t="n">
+        <v>48.6819596677876</v>
+      </c>
+      <c r="D42" t="n">
         <v>1.960066248394547</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0.6816764594498212</v>
       </c>
-      <c r="E42" t="n">
-        <v>40.4685427958547</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.01880086586279404</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.01880086586279406</v>
+      </c>
+      <c r="V42" t="n">
         <v>1818.68382189645</v>
       </c>
-      <c r="H42" t="n">
+      <c r="W42" t="n">
         <v>171.5358855826844</v>
       </c>
-      <c r="I42" t="n">
-        <v>-3.916494663786128</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="X42" t="n">
+        <v>-3.916494663786127</v>
+      </c>
+      <c r="Y42" t="n">
         <v>2.421695666149761</v>
       </c>
-      <c r="K42" t="n">
+      <c r="Z42" t="n">
         <v>0.08383711990900984</v>
       </c>
-      <c r="L42" t="n">
-        <v>8.713002271277938</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="AA42" t="n">
+        <v>8.713002271277935</v>
+      </c>
+      <c r="AB42" t="n">
         <v>1.389207621495003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>45.39868393715567</v>
+        <v>42.41365999634309</v>
       </c>
       <c r="B43" t="n">
         <v>8.999093989015684</v>
       </c>
       <c r="C43" t="n">
+        <v>45.39868393715567</v>
+      </c>
+      <c r="D43" t="n">
         <v>2.232970990007884</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>0.9555910874776881</v>
       </c>
-      <c r="E43" t="n">
-        <v>42.41365999634309</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.02152349612150525</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1826.726076183137</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.02152349612150524</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1826.726076183138</v>
+      </c>
+      <c r="W43" t="n">
         <v>179.2341687858081</v>
       </c>
-      <c r="I43" t="n">
-        <v>-4.220984231619051</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.725126528949923</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.08781957068462753</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="X43" t="n">
+        <v>-4.220984231619052</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.725126528949924</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.08781957068462755</v>
+      </c>
+      <c r="AA43" t="n">
         <v>8.614216723080775</v>
       </c>
-      <c r="M43" t="n">
+      <c r="AB43" t="n">
         <v>1.422324757136511</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40.9711385049328</v>
+        <v>44.05056700894834</v>
       </c>
       <c r="B44" t="n">
         <v>9.890677495893094</v>
       </c>
       <c r="C44" t="n">
+        <v>40.9711385049328</v>
+      </c>
+      <c r="D44" t="n">
         <v>3.582962479712098</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.504654510513664</v>
       </c>
-      <c r="E44" t="n">
-        <v>44.05056700894834</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.02682561572720429</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.02682561572720428</v>
+      </c>
+      <c r="V44" t="n">
         <v>1843.565591080131</v>
       </c>
-      <c r="H44" t="n">
+      <c r="W44" t="n">
         <v>204.9714206893031</v>
       </c>
-      <c r="I44" t="n">
-        <v>-4.80082848771547</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.20869417912641</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="X44" t="n">
+        <v>-4.800828487715472</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.208694179126411</v>
+      </c>
+      <c r="Z44" t="n">
         <v>0.0965251354987447</v>
       </c>
-      <c r="L44" t="n">
-        <v>8.466966945027913</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="AA44" t="n">
+        <v>8.466966945027915</v>
+      </c>
+      <c r="AB44" t="n">
         <v>1.480117606964709</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>38.05554080101164</v>
+        <v>45.28527361475503</v>
       </c>
       <c r="B45" t="n">
         <v>10.45016941021403</v>
       </c>
       <c r="C45" t="n">
+        <v>38.05554080101164</v>
+      </c>
+      <c r="D45" t="n">
         <v>4.05760531167356</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2.151410862345743</v>
       </c>
-      <c r="E45" t="n">
-        <v>45.28527361475503</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>0.03095282062176732</v>
       </c>
-      <c r="G45" t="n">
+      <c r="V45" t="n">
         <v>1852.242822712511</v>
       </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
         <v>213.1614044856885</v>
       </c>
-      <c r="I45" t="n">
-        <v>-5.36730004916967</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="X45" t="n">
+        <v>-5.367300049169668</v>
+      </c>
+      <c r="Y45" t="n">
         <v>3.649523120293471</v>
       </c>
-      <c r="K45" t="n">
+      <c r="Z45" t="n">
         <v>0.1018977667132576</v>
       </c>
-      <c r="L45" t="n">
-        <v>8.3607683901506</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="AA45" t="n">
+        <v>8.360768390150598</v>
+      </c>
+      <c r="AB45" t="n">
         <v>1.523919880415215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>35.43340443761144</v>
+        <v>45.11415223222625</v>
       </c>
       <c r="B46" t="n">
         <v>10.88678210520005</v>
       </c>
       <c r="C46" t="n">
+        <v>35.43340443761144</v>
+      </c>
+      <c r="D46" t="n">
         <v>5.105603303705024</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>3.460057921257236</v>
       </c>
-      <c r="E46" t="n">
-        <v>45.11415223222625</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.03774512712960616</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.03774512712960618</v>
+      </c>
+      <c r="V46" t="n">
         <v>1864.986554005233</v>
       </c>
-      <c r="H46" t="n">
-        <v>228.8206401150541</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-6.533251677848141</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.375147715580695</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="W46" t="n">
+        <v>228.820640115054</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-6.533251677848139</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4.375147715580694</v>
+      </c>
+      <c r="Z46" t="n">
         <v>0.1115694150144273</v>
       </c>
-      <c r="L46" t="n">
-        <v>8.22508757524284</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="AA46" t="n">
+        <v>8.225087575242839</v>
+      </c>
+      <c r="AB46" t="n">
         <v>1.611128225553049</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32.0942836230312</v>
+        <v>44.97584185956661</v>
       </c>
       <c r="B47" t="n">
         <v>11.26384164075777</v>
       </c>
       <c r="C47" t="n">
+        <v>32.0942836230312</v>
+      </c>
+      <c r="D47" t="n">
         <v>6.302047026935472</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>5.363985849708929</v>
       </c>
-      <c r="E47" t="n">
-        <v>44.97584185956661</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.04519229896075171</v>
       </c>
-      <c r="G47" t="n">
+      <c r="V47" t="n">
         <v>1879.925142298614</v>
       </c>
-      <c r="H47" t="n">
+      <c r="W47" t="n">
         <v>244.2319599421378</v>
       </c>
-      <c r="I47" t="n">
-        <v>-8.024936354289265</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="X47" t="n">
+        <v>-8.024936354289267</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.108179535392596</v>
       </c>
-      <c r="K47" t="n">
+      <c r="Z47" t="n">
         <v>0.1227780247380687</v>
       </c>
-      <c r="L47" t="n">
+      <c r="AA47" t="n">
         <v>8.046246763814068</v>
       </c>
-      <c r="M47" t="n">
+      <c r="AB47" t="n">
         <v>1.709770449615942</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30.20551982470235</v>
+        <v>42.0865253634753</v>
       </c>
       <c r="B48" t="n">
         <v>11.61062958759157</v>
       </c>
       <c r="C48" t="n">
+        <v>30.20551982470235</v>
+      </c>
+      <c r="D48" t="n">
         <v>7.933285538006333</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>8.164039686224461</v>
       </c>
-      <c r="E48" t="n">
-        <v>42.0865253634753</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.05337959878309732</v>
       </c>
-      <c r="G48" t="n">
+      <c r="V48" t="n">
         <v>1897.866015794312</v>
       </c>
-      <c r="H48" t="n">
-        <v>263.3428581176035</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="W48" t="n">
+        <v>263.3428581176036</v>
+      </c>
+      <c r="X48" t="n">
         <v>-10.18430042650438</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.978418731174593</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="Y48" t="n">
+        <v>5.978418731174595</v>
+      </c>
+      <c r="Z48" t="n">
         <v>0.1372934475010165</v>
       </c>
-      <c r="L48" t="n">
-        <v>7.848168989507926</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="AA48" t="n">
+        <v>7.848168989507927</v>
+      </c>
+      <c r="AB48" t="n">
         <v>1.849931607495227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.19589965294441</v>
+        <v>40.81585186348995</v>
       </c>
       <c r="B49" t="n">
         <v>11.45538272157001</v>
       </c>
       <c r="C49" t="n">
+        <v>27.19589965294441</v>
+      </c>
+      <c r="D49" t="n">
         <v>9.05861416233218</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>11.47425159966346</v>
       </c>
-      <c r="E49" t="n">
-        <v>40.81585186348995</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.06038257678424405</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.06038257678424401</v>
+      </c>
+      <c r="V49" t="n">
         <v>1911.895943236241</v>
       </c>
-      <c r="H49" t="n">
+      <c r="W49" t="n">
         <v>273.266600994712</v>
       </c>
-      <c r="I49" t="n">
+      <c r="X49" t="n">
         <v>-12.19586695638432</v>
       </c>
-      <c r="J49" t="n">
-        <v>6.628266439494641</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="Y49" t="n">
+        <v>6.628266439494642</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.1491778924153696</v>
       </c>
-      <c r="L49" t="n">
-        <v>7.621670965023037</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="AA49" t="n">
+        <v>7.621670965023038</v>
+      </c>
+      <c r="AB49" t="n">
         <v>1.957039338609674</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>47.58367348944883</v>
+        <v>45.37200448015243</v>
       </c>
       <c r="B50" t="n">
         <v>5.223833584071546</v>
       </c>
       <c r="C50" t="n">
+        <v>47.58367348944883</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.268955264287828</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0.5515331820393581</v>
       </c>
-      <c r="E50" t="n">
-        <v>45.37200448015243</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.01650675275345272</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1802.780645478129</v>
-      </c>
-      <c r="H50" t="n">
-        <v>141.3045690310866</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-3.350434456507964</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.01650675275345274</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1802.78064547813</v>
+      </c>
+      <c r="W50" t="n">
+        <v>141.3045690310867</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-3.350434456507965</v>
+      </c>
+      <c r="Y50" t="n">
         <v>2.142422444745051</v>
       </c>
-      <c r="K50" t="n">
+      <c r="Z50" t="n">
         <v>0.07229919356232063</v>
       </c>
-      <c r="L50" t="n">
-        <v>8.770975246959416</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="AA50" t="n">
+        <v>8.770975246959415</v>
+      </c>
+      <c r="AB50" t="n">
         <v>1.275115202946909</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42.64463011182583</v>
+        <v>48.78786662406539</v>
       </c>
       <c r="B51" t="n">
         <v>6.144711966491161</v>
       </c>
       <c r="C51" t="n">
+        <v>42.64463011182583</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.746867803426478</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0.6759234941911552</v>
       </c>
-      <c r="E51" t="n">
-        <v>48.78786662406539</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.01848949497671527</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.01848949497671528</v>
+      </c>
+      <c r="V51" t="n">
         <v>1813.793750480788</v>
       </c>
-      <c r="H51" t="n">
+      <c r="W51" t="n">
         <v>156.2722053331537</v>
       </c>
-      <c r="I51" t="n">
+      <c r="X51" t="n">
         <v>-3.497233308448993</v>
       </c>
-      <c r="J51" t="n">
+      <c r="Y51" t="n">
         <v>2.270210503507955</v>
       </c>
-      <c r="K51" t="n">
+      <c r="Z51" t="n">
         <v>0.07679224333612204</v>
       </c>
-      <c r="L51" t="n">
-        <v>8.641966246426012</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="AA51" t="n">
+        <v>8.64196624642601</v>
+      </c>
+      <c r="AB51" t="n">
         <v>1.299463027721608</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>39.73609779881278</v>
+        <v>50.73675625671652</v>
       </c>
       <c r="B52" t="n">
         <v>6.684722573324661</v>
       </c>
       <c r="C52" t="n">
+        <v>39.73609779881278</v>
+      </c>
+      <c r="D52" t="n">
         <v>1.918285343225266</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0.9241380279207699</v>
       </c>
-      <c r="E52" t="n">
-        <v>50.73675625671652</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0209307468106094</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.02093074681060939</v>
+      </c>
+      <c r="V52" t="n">
         <v>1819.810792892937</v>
       </c>
-      <c r="H52" t="n">
+      <c r="W52" t="n">
         <v>161.7862543444157</v>
       </c>
-      <c r="I52" t="n">
+      <c r="X52" t="n">
         <v>-3.723492075321114</v>
       </c>
-      <c r="J52" t="n">
+      <c r="Y52" t="n">
         <v>2.535657421572502</v>
       </c>
-      <c r="K52" t="n">
+      <c r="Z52" t="n">
         <v>0.07998154867036784</v>
       </c>
-      <c r="L52" t="n">
-        <v>8.558739521406242</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="AA52" t="n">
+        <v>8.558739521406244</v>
+      </c>
+      <c r="AB52" t="n">
         <v>1.321868675660055</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>36.51395857641639</v>
+        <v>51.96609868449762</v>
       </c>
       <c r="B53" t="n">
         <v>7.125557036648022</v>
       </c>
       <c r="C53" t="n">
+        <v>36.51395857641639</v>
+      </c>
+      <c r="D53" t="n">
         <v>2.908620861069055</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>1.485764841368929</v>
       </c>
-      <c r="E53" t="n">
-        <v>51.96609868449762</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.02613434287937933</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1831.477901479314</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.02613434287937934</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1831.477901479313</v>
+      </c>
+      <c r="W53" t="n">
         <v>182.6578015993563</v>
       </c>
-      <c r="I53" t="n">
-        <v>-4.267143899904625</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.037407874301899</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.08755231730496202</v>
-      </c>
-      <c r="L53" t="n">
-        <v>8.448512326713379</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="X53" t="n">
+        <v>-4.267143899904623</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.037407874301898</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.087552317304962</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8.448512326713377</v>
+      </c>
+      <c r="AB53" t="n">
         <v>1.373272575262313</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33.94381032547561</v>
+        <v>52.45736467440484</v>
       </c>
       <c r="B54" t="n">
         <v>7.818356008967962</v>
       </c>
       <c r="C54" t="n">
+        <v>33.94381032547561</v>
+      </c>
+      <c r="D54" t="n">
         <v>3.48038624477838</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>2.300082746373203</v>
       </c>
-      <c r="E54" t="n">
-        <v>52.45736467440484</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
         <v>0.03136456619215159</v>
       </c>
-      <c r="G54" t="n">
+      <c r="V54" t="n">
         <v>1841.294138540393</v>
       </c>
-      <c r="H54" t="n">
+      <c r="W54" t="n">
         <v>194.6042654912872</v>
       </c>
-      <c r="I54" t="n">
-        <v>-5.013693058505861</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="X54" t="n">
+        <v>-5.013693058505862</v>
+      </c>
+      <c r="Y54" t="n">
         <v>3.590387282908146</v>
       </c>
-      <c r="K54" t="n">
+      <c r="Z54" t="n">
         <v>0.09506810679981141</v>
       </c>
-      <c r="L54" t="n">
-        <v>8.3373602001035</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="AA54" t="n">
+        <v>8.337360200103499</v>
+      </c>
+      <c r="AB54" t="n">
         <v>1.439120569864712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>31.97839661068264</v>
+        <v>51.85220057025387</v>
       </c>
       <c r="B55" t="n">
         <v>8.53527245083175</v>
       </c>
       <c r="C55" t="n">
+        <v>31.97839661068264</v>
+      </c>
+      <c r="D55" t="n">
         <v>4.252332960149705</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>3.381797408082039</v>
       </c>
-      <c r="E55" t="n">
-        <v>51.85220057025387</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.03697844851397943</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.03697844851397947</v>
+      </c>
+      <c r="V55" t="n">
         <v>1852.438872481081</v>
       </c>
-      <c r="H55" t="n">
+      <c r="W55" t="n">
         <v>208.8803546038069</v>
       </c>
-      <c r="I55" t="n">
+      <c r="X55" t="n">
         <v>-5.988293646345637</v>
       </c>
-      <c r="J55" t="n">
+      <c r="Y55" t="n">
         <v>4.163938861748861</v>
       </c>
-      <c r="K55" t="n">
+      <c r="Z55" t="n">
         <v>0.1039704844714694</v>
       </c>
-      <c r="L55" t="n">
+      <c r="AA55" t="n">
         <v>8.222625121503787</v>
       </c>
-      <c r="M55" t="n">
+      <c r="AB55" t="n">
         <v>1.521481844261621</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29.88165140595067</v>
+        <v>51.37276147532685</v>
       </c>
       <c r="B56" t="n">
         <v>8.790516358863357</v>
       </c>
       <c r="C56" t="n">
+        <v>29.88165140595067</v>
+      </c>
+      <c r="D56" t="n">
         <v>4.817071318855069</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>5.137999441004045</v>
       </c>
-      <c r="E56" t="n">
-        <v>51.37276147532685</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.04386412301033655</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.04386412301033653</v>
+      </c>
+      <c r="V56" t="n">
         <v>1861.438762891978</v>
       </c>
-      <c r="H56" t="n">
+      <c r="W56" t="n">
         <v>217.3992985995519</v>
       </c>
-      <c r="I56" t="n">
+      <c r="X56" t="n">
         <v>-7.404815575400058</v>
       </c>
-      <c r="J56" t="n">
+      <c r="Y56" t="n">
         <v>4.855416672966035</v>
       </c>
-      <c r="K56" t="n">
+      <c r="Z56" t="n">
         <v>0.1135459249647726</v>
       </c>
-      <c r="L56" t="n">
+      <c r="AA56" t="n">
         <v>8.085637514775369</v>
       </c>
-      <c r="M56" t="n">
-        <v>1.621859413550103</v>
+      <c r="AB56" t="n">
+        <v>1.621859413550102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27.44639767550942</v>
+        <v>49.881475732815</v>
       </c>
       <c r="B57" t="n">
         <v>9.097479396405918</v>
       </c>
       <c r="C57" t="n">
+        <v>27.44639767550942</v>
+      </c>
+      <c r="D57" t="n">
         <v>6.385106315226083</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>7.189540880043592</v>
       </c>
-      <c r="E57" t="n">
-        <v>49.881475732815</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.05056947647223293</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.05056947647223296</v>
+      </c>
+      <c r="V57" t="n">
         <v>1878.032354328183</v>
       </c>
-      <c r="H57" t="n">
+      <c r="W57" t="n">
         <v>238.9294845076311</v>
       </c>
-      <c r="I57" t="n">
-        <v>-8.939197736900102</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="X57" t="n">
+        <v>-8.9391977369001</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.441441972472609</v>
       </c>
-      <c r="K57" t="n">
+      <c r="Z57" t="n">
         <v>0.1259856130237835</v>
       </c>
-      <c r="L57" t="n">
+      <c r="AA57" t="n">
         <v>7.91523055084948</v>
       </c>
-      <c r="M57" t="n">
+      <c r="AB57" t="n">
         <v>1.727016787533407</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>25.79843573181753</v>
+        <v>46.147295090649</v>
       </c>
       <c r="B58" t="n">
         <v>8.858468480519768</v>
       </c>
       <c r="C58" t="n">
+        <v>25.79843573181753</v>
+      </c>
+      <c r="D58" t="n">
         <v>7.658075855521748</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>11.53772484149196</v>
       </c>
-      <c r="E58" t="n">
-        <v>46.147295090649</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.06033155653299954</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.06033155653299953</v>
+      </c>
+      <c r="V58" t="n">
         <v>1893.132140490695</v>
       </c>
-      <c r="H58" t="n">
+      <c r="W58" t="n">
         <v>252.9248188175117</v>
       </c>
-      <c r="I58" t="n">
+      <c r="X58" t="n">
         <v>-11.95489947297237</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.429520058875787</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.1429482959700768</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="Y58" t="n">
+        <v>6.429520058875785</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.1429482959700767</v>
+      </c>
+      <c r="AA58" t="n">
         <v>7.666832004451789</v>
       </c>
-      <c r="M58" t="n">
+      <c r="AB58" t="n">
         <v>1.911541131955564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>36.74922850445188</v>
+        <v>56.70921047332411</v>
       </c>
       <c r="B59" t="n">
         <v>4.45933779448573</v>
       </c>
       <c r="C59" t="n">
+        <v>36.74922850445188</v>
+      </c>
+      <c r="D59" t="n">
         <v>1.479037996335657</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>0.6031852314026278</v>
       </c>
-      <c r="E59" t="n">
-        <v>56.70921047332411</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
         <v>0.01740178845315576</v>
       </c>
-      <c r="G59" t="n">
+      <c r="V59" t="n">
         <v>1809.884110433831</v>
       </c>
-      <c r="H59" t="n">
+      <c r="W59" t="n">
         <v>139.8836375896841</v>
       </c>
-      <c r="I59" t="n">
+      <c r="X59" t="n">
         <v>-3.031786591218217</v>
       </c>
-      <c r="J59" t="n">
+      <c r="Y59" t="n">
         <v>2.025358101991432</v>
       </c>
-      <c r="K59" t="n">
+      <c r="Z59" t="n">
         <v>0.06936782305242623</v>
       </c>
-      <c r="L59" t="n">
+      <c r="AA59" t="n">
         <v>8.569387607330375</v>
       </c>
-      <c r="M59" t="n">
+      <c r="AB59" t="n">
         <v>1.203316242282515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>34.31338024363218</v>
+        <v>58.23723423416003</v>
       </c>
       <c r="B60" t="n">
         <v>4.536878620919904</v>
       </c>
       <c r="C60" t="n">
+        <v>34.31338024363218</v>
+      </c>
+      <c r="D60" t="n">
         <v>1.953834188367503</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>0.9586727129203946</v>
       </c>
-      <c r="E60" t="n">
-        <v>58.23723423416003</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.02130045397373643</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1815.769244665607</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.02130045397373641</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1815.769244665606</v>
+      </c>
+      <c r="W60" t="n">
         <v>151.3022445361542</v>
       </c>
-      <c r="I60" t="n">
+      <c r="X60" t="n">
         <v>-3.339746289076316</v>
       </c>
-      <c r="J60" t="n">
+      <c r="Y60" t="n">
         <v>2.4274130012333</v>
       </c>
-      <c r="K60" t="n">
+      <c r="Z60" t="n">
         <v>0.07376622362674641</v>
       </c>
-      <c r="L60" t="n">
-        <v>8.497920215669927</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.229763406140412</v>
+      <c r="AA60" t="n">
+        <v>8.497920215669925</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.229763406140413</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31.75357300774514</v>
+        <v>59.34611390594659</v>
       </c>
       <c r="B61" t="n">
         <v>5.278994683623767</v>
       </c>
       <c r="C61" t="n">
+        <v>31.75357300774514</v>
+      </c>
+      <c r="D61" t="n">
         <v>2.342432744028005</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
         <v>1.278885658656497</v>
       </c>
-      <c r="E61" t="n">
-        <v>59.34611390594659</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.02418905334103039</v>
       </c>
-      <c r="G61" t="n">
+      <c r="V61" t="n">
         <v>1823.822495380722</v>
       </c>
-      <c r="H61" t="n">
+      <c r="W61" t="n">
         <v>162.630477938699</v>
       </c>
-      <c r="I61" t="n">
-        <v>-3.626491216119733</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="X61" t="n">
+        <v>-3.626491216119732</v>
+      </c>
+      <c r="Y61" t="n">
         <v>2.699405705324574</v>
       </c>
-      <c r="K61" t="n">
+      <c r="Z61" t="n">
         <v>0.0788050276053151</v>
       </c>
-      <c r="L61" t="n">
+      <c r="AA61" t="n">
         <v>8.411801508251644</v>
       </c>
-      <c r="M61" t="n">
+      <c r="AB61" t="n">
         <v>1.262040669588086</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29.99528848365004</v>
+        <v>59.33493295870724</v>
       </c>
       <c r="B62" t="n">
         <v>5.752837488642101</v>
       </c>
       <c r="C62" t="n">
+        <v>29.99528848365004</v>
+      </c>
+      <c r="D62" t="n">
         <v>2.914852635871863</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>2.002088433128751</v>
       </c>
-      <c r="E62" t="n">
-        <v>59.33493295870724</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
         <v>0.02932879966732232</v>
       </c>
-      <c r="G62" t="n">
-        <v>1831.956111086356</v>
-      </c>
-      <c r="H62" t="n">
+      <c r="V62" t="n">
+        <v>1831.956111086357</v>
+      </c>
+      <c r="W62" t="n">
         <v>175.8022254655756</v>
       </c>
-      <c r="I62" t="n">
-        <v>-4.296603370469127</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="X62" t="n">
+        <v>-4.296603370469128</v>
+      </c>
+      <c r="Y62" t="n">
         <v>3.233605779627207</v>
       </c>
-      <c r="K62" t="n">
-        <v>0.08625357428706133</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="Z62" t="n">
+        <v>0.08625357428706135</v>
+      </c>
+      <c r="AA62" t="n">
         <v>8.326103638935868</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.326537735811674</v>
+      <c r="AB62" t="n">
+        <v>1.326537735811675</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28.72947600949317</v>
+        <v>58.39353789451046</v>
       </c>
       <c r="B63" t="n">
         <v>6.257907215926917</v>
       </c>
       <c r="C63" t="n">
+        <v>28.72947600949317</v>
+      </c>
+      <c r="D63" t="n">
         <v>3.686192936964952</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>2.932885943104509</v>
       </c>
-      <c r="E63" t="n">
-        <v>58.39353789451046</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
         <v>0.0346884499810637</v>
       </c>
-      <c r="G63" t="n">
+      <c r="V63" t="n">
         <v>1841.442540380199</v>
       </c>
-      <c r="H63" t="n">
+      <c r="W63" t="n">
         <v>191.5431379373314</v>
       </c>
-      <c r="I63" t="n">
+      <c r="X63" t="n">
         <v>-5.15969551143198</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.770269184798586</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="Y63" t="n">
+        <v>3.770269184798587</v>
+      </c>
+      <c r="Z63" t="n">
         <v>0.09500510175245287</v>
       </c>
-      <c r="L63" t="n">
+      <c r="AA63" t="n">
         <v>8.237211329330723</v>
       </c>
-      <c r="M63" t="n">
+      <c r="AB63" t="n">
         <v>1.407001033805207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27.03294124676937</v>
+        <v>57.3323684814925</v>
       </c>
       <c r="B64" t="n">
         <v>6.626916797840604</v>
       </c>
       <c r="C64" t="n">
+        <v>27.03294124676937</v>
+      </c>
+      <c r="D64" t="n">
         <v>4.283868902542922</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>4.723904571354601</v>
       </c>
-      <c r="E64" t="n">
-        <v>57.3323684814925</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.04226224807061562</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.0422622480706156</v>
+      </c>
+      <c r="V64" t="n">
         <v>1850.859046094969</v>
       </c>
-      <c r="H64" t="n">
+      <c r="W64" t="n">
         <v>202.3200598468264</v>
       </c>
-      <c r="I64" t="n">
-        <v>-6.655098692012343</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="X64" t="n">
+        <v>-6.655098692012342</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.517802087094323</v>
       </c>
-      <c r="K64" t="n">
+      <c r="Z64" t="n">
         <v>0.1061043392779721</v>
       </c>
-      <c r="L64" t="n">
+      <c r="AA64" t="n">
         <v>8.103649949123939</v>
       </c>
-      <c r="M64" t="n">
+      <c r="AB64" t="n">
         <v>1.525445472123222</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25.46424470379871</v>
+        <v>54.83283250514894</v>
       </c>
       <c r="B65" t="n">
         <v>7.032440610391723</v>
       </c>
       <c r="C65" t="n">
+        <v>25.46424470379871</v>
+      </c>
+      <c r="D65" t="n">
         <v>5.527364889749399</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>7.143117290911234</v>
       </c>
-      <c r="E65" t="n">
-        <v>54.83283250514894</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.05021896804764986</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.05021896804764987</v>
+      </c>
+      <c r="V65" t="n">
         <v>1865.499561822273</v>
       </c>
-      <c r="H65" t="n">
+      <c r="W65" t="n">
         <v>221.858194701114</v>
       </c>
-      <c r="I65" t="n">
-        <v>-8.56490055737344</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="X65" t="n">
+        <v>-8.564900557373438</v>
+      </c>
+      <c r="Y65" t="n">
         <v>5.247073115973366</v>
       </c>
-      <c r="K65" t="n">
+      <c r="Z65" t="n">
         <v>0.1202527212934408</v>
       </c>
-      <c r="L65" t="n">
+      <c r="AA65" t="n">
         <v>7.934625268674909</v>
       </c>
-      <c r="M65" t="n">
+      <c r="AB65" t="n">
         <v>1.667377773524082</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>27.90815232372413</v>
+        <v>66.18771861830042</v>
       </c>
       <c r="B66" t="n">
         <v>3.571193889207815</v>
       </c>
       <c r="C66" t="n">
+        <v>27.90815232372413</v>
+      </c>
+      <c r="D66" t="n">
         <v>1.502033184039599</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>0.8309019847280388</v>
       </c>
-      <c r="E66" t="n">
-        <v>66.18771861830042</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
         <v>0.01963192563019495</v>
       </c>
-      <c r="G66" t="n">
+      <c r="V66" t="n">
         <v>1813.904730364141</v>
       </c>
-      <c r="H66" t="n">
+      <c r="W66" t="n">
         <v>133.340212169379</v>
       </c>
-      <c r="I66" t="n">
+      <c r="X66" t="n">
         <v>-2.8002327490981</v>
       </c>
-      <c r="J66" t="n">
+      <c r="Y66" t="n">
         <v>2.129102396816455</v>
       </c>
-      <c r="K66" t="n">
+      <c r="Z66" t="n">
         <v>0.06650261904096777</v>
       </c>
-      <c r="L66" t="n">
-        <v>8.404495746911222</v>
-      </c>
-      <c r="M66" t="n">
+      <c r="AA66" t="n">
+        <v>8.40449574691122</v>
+      </c>
+      <c r="AB66" t="n">
         <v>1.124538934076214</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>26.49154144135773</v>
+        <v>66.85471859160208</v>
       </c>
       <c r="B67" t="n">
         <v>3.813661095882745</v>
       </c>
       <c r="C67" t="n">
+        <v>26.49154144135773</v>
+      </c>
+      <c r="D67" t="n">
         <v>1.691522230009478</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.148556641147982</v>
       </c>
-      <c r="E67" t="n">
-        <v>66.85471859160208</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.02251848971573795</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1817.7189607482</v>
-      </c>
-      <c r="H67" t="n">
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.02251848971573794</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1817.718960748199</v>
+      </c>
+      <c r="W67" t="n">
         <v>139.2109885145891</v>
       </c>
-      <c r="I67" t="n">
+      <c r="X67" t="n">
         <v>-3.060644452700787</v>
       </c>
-      <c r="J67" t="n">
-        <v>2.426542647739843</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.07007314791346539</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.354293452070607</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.149923918218328</v>
+      <c r="Y67" t="n">
+        <v>2.426542647739842</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.07007314791346538</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8.354293452070605</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.149923918218327</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24.91437454526202</v>
+        <v>66.29608309198557</v>
       </c>
       <c r="B68" t="n">
         <v>4.432612943819033</v>
       </c>
       <c r="C68" t="n">
+        <v>24.91437454526202</v>
+      </c>
+      <c r="D68" t="n">
         <v>2.416458994822328</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>1.940470424111047</v>
       </c>
-      <c r="E68" t="n">
-        <v>66.29608309198557</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
         <v>0.02857061409414813</v>
       </c>
-      <c r="G68" t="n">
+      <c r="V68" t="n">
         <v>1827.3507335351</v>
       </c>
-      <c r="H68" t="n">
+      <c r="W68" t="n">
         <v>158.7023074897322</v>
       </c>
-      <c r="I68" t="n">
+      <c r="X68" t="n">
         <v>-3.792604049406814</v>
       </c>
-      <c r="J68" t="n">
+      <c r="Y68" t="n">
         <v>3.013182612607435</v>
       </c>
-      <c r="K68" t="n">
+      <c r="Z68" t="n">
         <v>0.07966612253987757</v>
       </c>
-      <c r="L68" t="n">
-        <v>8.264353349839951</v>
-      </c>
-      <c r="M68" t="n">
+      <c r="AA68" t="n">
+        <v>8.264353349839952</v>
+      </c>
+      <c r="AB68" t="n">
         <v>1.229650020650664</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>24.40198458959529</v>
+        <v>65.32452373485688</v>
       </c>
       <c r="B69" t="n">
         <v>4.818150837213522</v>
       </c>
       <c r="C69" t="n">
+        <v>24.40198458959529</v>
+      </c>
+      <c r="D69" t="n">
         <v>2.83944115866238</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>2.615899679671924</v>
       </c>
-      <c r="E69" t="n">
-        <v>65.32452373485688</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
         <v>0.0325884773783547</v>
       </c>
-      <c r="G69" t="n">
+      <c r="V69" t="n">
         <v>1833.070883285166</v>
       </c>
-      <c r="H69" t="n">
+      <c r="W69" t="n">
         <v>169.0801681298954</v>
       </c>
-      <c r="I69" t="n">
+      <c r="X69" t="n">
         <v>-4.41709935748788</v>
       </c>
-      <c r="J69" t="n">
+      <c r="Y69" t="n">
         <v>3.409548023397951</v>
       </c>
-      <c r="K69" t="n">
+      <c r="Z69" t="n">
         <v>0.08616037513956529</v>
       </c>
-      <c r="L69" t="n">
+      <c r="AA69" t="n">
         <v>8.209032957442462</v>
       </c>
-      <c r="M69" t="n">
-        <v>1.293647358636753</v>
+      <c r="AB69" t="n">
+        <v>1.293647358636754</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>23.43996495381416</v>
+        <v>63.37031159981304</v>
       </c>
       <c r="B70" t="n">
         <v>5.076981561592881</v>
       </c>
       <c r="C70" t="n">
+        <v>23.43996495381416</v>
+      </c>
+      <c r="D70" t="n">
         <v>4.034033011020312</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>4.078708873759598</v>
       </c>
-      <c r="E70" t="n">
-        <v>63.37031159981304</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
         <v>0.03980131080266931</v>
       </c>
-      <c r="G70" t="n">
-        <v>1844.869218212894</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="V70" t="n">
+        <v>1844.869218212895</v>
+      </c>
+      <c r="W70" t="n">
         <v>192.1751435798204</v>
       </c>
-      <c r="I70" t="n">
-        <v>-5.701688642009427</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="X70" t="n">
+        <v>-5.701688642009428</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.064608656287339</v>
       </c>
-      <c r="K70" t="n">
+      <c r="Z70" t="n">
         <v>0.09862805660520312</v>
       </c>
-      <c r="L70" t="n">
-        <v>8.101491389254228</v>
-      </c>
-      <c r="M70" t="n">
+      <c r="AA70" t="n">
+        <v>8.10149138925423</v>
+      </c>
+      <c r="AB70" t="n">
         <v>1.41087388275249</v>
       </c>
     </row>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,146 +456,191 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_FCC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Nb</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mn</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Cu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ta</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Ti</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mg</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Zr</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Hf</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_BCC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_other</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ideal_S</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>elec_nega</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>bulk_modulus</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_bulk_modulus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14.31699359657089</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>45.45303756381198</v>
+      </c>
+      <c r="C2" t="n">
         <v>35.21024747388501</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45.45303756381198</v>
       </c>
       <c r="D2" t="n">
         <v>4.138939456436662</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8807819092954645</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -619,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8807819092954645</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -637,51 +682,78 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.251521989678945</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.02253547848829161</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AA2" t="n">
         <v>1943.689937272888</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
         <v>257.6622314272465</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AC2" t="n">
         <v>-6.600670779576464</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
         <v>2.725194759728065</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AE2" t="n">
+        <v>1.147142696936078</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.804983417249365</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.1294765609887398</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AH2" t="n">
         <v>8.019565087964157</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
         <v>1.882782738202394</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>171388317468.4925</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>14.32836661497964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.27891067420843</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>40.92255698837002</v>
+      </c>
+      <c r="C3" t="n">
         <v>36.6201454088738</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40.92255698837002</v>
       </c>
       <c r="D3" t="n">
         <v>5.876322025641183</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.302064902906558</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -705,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.302064902906558</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -723,51 +795,78 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.253817126077662</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.02694522627737901</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="n">
         <v>1965.232211811153</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AB3" t="n">
         <v>272.8648425860655</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AC3" t="n">
         <v>-6.784358711655282</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
         <v>3.05867883644598</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AE3" t="n">
+        <v>1.203577178103599</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.800724771072062</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.1352538527876291</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AH3" t="n">
         <v>7.860844830357834</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AI3" t="n">
         <v>1.882863745105841</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>171118159891.1738</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>16.08622272168105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.85974020072816</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>37.76174814854082</v>
+      </c>
+      <c r="C4" t="n">
         <v>36.64321598420395</v>
-      </c>
-      <c r="C4" t="n">
-        <v>37.76174814854082</v>
       </c>
       <c r="D4" t="n">
         <v>7.80394955983821</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.931346106688842</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.931346106688842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -809,51 +908,78 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.25679119077982</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.03182150005173198</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="n">
         <v>1982.136990951654</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AB4" t="n">
         <v>287.9882959816393</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AC4" t="n">
         <v>-7.110372733273778</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AD4" t="n">
         <v>3.472869202386087</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
+        <v>1.258246148251025</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.799668440670777</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.1415133348130074</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AH4" t="n">
         <v>7.745255241435793</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AI4" t="n">
         <v>1.88771008374703</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>171052339763.9182</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>18.04265100637286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.6254486072678</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>34.64032304241116</v>
+      </c>
+      <c r="C5" t="n">
         <v>36.11907612318919</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34.64032304241116</v>
       </c>
       <c r="D5" t="n">
         <v>9.938243812179149</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.676908414952717</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -877,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.676908414952717</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -895,51 +1021,78 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.260232346945898</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.03650958141869901</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AA5" t="n">
         <v>1998.704549708214</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AB5" t="n">
         <v>303.2036733109156</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
         <v>-7.448384251476015</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AD5" t="n">
         <v>3.870669819197705</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
+        <v>1.313448912174908</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.799626391739986</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.1481363288949336</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AH5" t="n">
         <v>7.632754295458397</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
         <v>1.888592288927109</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>171041670755.6002</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>20.05699096295393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.72168606967666</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>32.01806283446086</v>
+      </c>
+      <c r="C6" t="n">
         <v>34.35963304036784</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32.01806283446086</v>
       </c>
       <c r="D6" t="n">
         <v>13.07589480250266</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.824723252991968</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -963,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.824723252991968</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -981,51 +1134,78 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.265564486250186</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.04235576111430078</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AA6" t="n">
         <v>2018.214448345743</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AB6" t="n">
         <v>324.7308784847411</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AC6" t="n">
         <v>-8.088070431069365</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AD6" t="n">
         <v>4.40855312851456</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
+        <v>1.37911095528632</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.802765112946227</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.1577895466199948</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AH6" t="n">
         <v>7.522190808934131</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AI6" t="n">
         <v>1.906034934854781</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>171294788285.3091</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>22.81100924058806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.58023045110392</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>52.95340249452182</v>
+      </c>
+      <c r="C7" t="n">
         <v>25.78737383125358</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52.95340249452182</v>
       </c>
       <c r="D7" t="n">
         <v>3.020229760012374</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6587634631082945</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1049,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6587634631082945</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1067,51 +1247,78 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.249736385779213</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.01965435998709447</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AA7" t="n">
         <v>1892.938009525173</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AB7" t="n">
         <v>237.5653691001578</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
         <v>-5.994507720450255</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AD7" t="n">
         <v>2.581847742723802</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
+        <v>1.11732464228782</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.826736319271887</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0.118462799182464</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AH7" t="n">
         <v>8.395015690413882</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AI7" t="n">
         <v>1.794908847638016</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>172915188335.3418</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>12.79271954967143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.57818076528054</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>48.96939004892192</v>
+      </c>
+      <c r="C8" t="n">
         <v>27.91436124376087</v>
-      </c>
-      <c r="C8" t="n">
-        <v>48.96939004892192</v>
       </c>
       <c r="D8" t="n">
         <v>3.715176746073181</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.8228911959634791</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1135,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8228911959634791</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1153,51 +1360,78 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.250654425532511</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.0217918802475133</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AA8" t="n">
         <v>1909.362930638625</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AB8" t="n">
         <v>247.3803952796019</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AC8" t="n">
         <v>-6.183842717090982</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AD8" t="n">
         <v>2.759795499553948</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
+        <v>1.16011518662101</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.820494847966426</v>
+      </c>
+      <c r="AG8" t="n">
         <v>0.1223855138317489</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AH8" t="n">
         <v>8.255002054743926</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AI8" t="n">
         <v>1.81549624662442</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>172424447006.5203</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>13.65353329768383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.60838259075554</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>43.89614162525374</v>
+      </c>
+      <c r="C9" t="n">
         <v>29.66754518388709</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43.89614162525374</v>
       </c>
       <c r="D9" t="n">
         <v>5.44038604100223</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.38754455910141</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1221,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38754455910141</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1239,51 +1473,78 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.253321544910545</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0.0272568340717355</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AA9" t="n">
         <v>1932.778266653697</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
         <v>265.8434854610491</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AC9" t="n">
         <v>-6.625733508060049</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
         <v>3.244590676251661</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
+        <v>1.229345803511606</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.814696832204614</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0.1295903888532182</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AH9" t="n">
         <v>8.071379240315668</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AI9" t="n">
         <v>1.841990243468286</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>171957507202.8496</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15.71701713563364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20.10500298210745</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>40.7223095709536</v>
+      </c>
+      <c r="C10" t="n">
         <v>29.98729806356584</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40.7223095709536</v>
       </c>
       <c r="D10" t="n">
         <v>7.226526681518458</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.958862701854644</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1307,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.958862701854644</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1325,51 +1586,78 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.256064942597114</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.0317465603588726</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AA10" t="n">
         <v>1949.68899993882</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AB10" t="n">
         <v>282.152996096776</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AC10" t="n">
         <v>-7.013371196182621</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AD10" t="n">
         <v>3.636039064216791</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
+        <v>1.281625148225212</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.813082742684012</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.1358791131797596</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AH10" t="n">
         <v>7.954126347312227</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AI10" t="n">
         <v>1.858662341015401</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>171851681363.5309</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17.57455500645779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20.82282672295324</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>36.74628169506838</v>
+      </c>
+      <c r="C11" t="n">
         <v>29.84803147986053</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36.74628169506838</v>
       </c>
       <c r="D11" t="n">
         <v>9.683662142563847</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.899197959554011</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.899197959554011</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1411,51 +1699,78 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.260268561474787</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.03747469633312293</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AA11" t="n">
         <v>1970.837222367484</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AB11" t="n">
         <v>301.8142356671538</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AC11" t="n">
         <v>-7.569709028266014</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AD11" t="n">
         <v>4.14684298561076</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AE11" t="n">
+        <v>1.346876428306125</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.811688326802196</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0.144266728071026</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AH11" t="n">
         <v>7.803943277815693</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AI11" t="n">
         <v>1.876353876773989</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>171696005300.1188</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>20.0374571810473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.05931589769223</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>33.80936172608322</v>
+      </c>
+      <c r="C12" t="n">
         <v>29.32188193594872</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33.80936172608322</v>
       </c>
       <c r="D12" t="n">
         <v>11.33506169200627</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4.474378748269556</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1479,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4.474378748269556</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1497,51 +1812,78 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.265563358959718</v>
+      </c>
+      <c r="Z12" t="n">
         <v>0.04388062762971051</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AA12" t="n">
         <v>1984.893645274819</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AB12" t="n">
         <v>312.7912526964028</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AC12" t="n">
         <v>-8.544522616153612</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AD12" t="n">
         <v>4.828722472818985</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AE12" t="n">
+        <v>1.404891773139415</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.808071303466312</v>
+      </c>
+      <c r="AG12" t="n">
         <v>0.1518851483776252</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AH12" t="n">
         <v>7.661042526388837</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AI12" t="n">
         <v>1.913479908641325</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>170925973256.3754</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>22.48931247149299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.38449445236935</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>30.80309232937815</v>
+      </c>
+      <c r="C13" t="n">
         <v>26.75493744727493</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.80309232937815</v>
       </c>
       <c r="D13" t="n">
         <v>14.61315841043162</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6.444317360545956</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1565,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.444317360545956</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1583,51 +1925,78 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.27322168213816</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.05066928667504613</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AA13" t="n">
         <v>2003.518849764438</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AB13" t="n">
         <v>335.0663881607878</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AC13" t="n">
         <v>-9.696165162328283</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AD13" t="n">
         <v>5.529627551909936</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AE13" t="n">
+        <v>1.474712206632381</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.809948215092318</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0.1630674105518073</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AH13" t="n">
         <v>7.518731247211837</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AI13" t="n">
         <v>1.953826742856776</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>170680306223.5178</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>25.78140191167611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19.79697020692051</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>60.47274407694169</v>
+      </c>
+      <c r="C14" t="n">
         <v>17.07053042259378</v>
-      </c>
-      <c r="C14" t="n">
-        <v>60.47274407694169</v>
       </c>
       <c r="D14" t="n">
         <v>2.127756037006</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.5319992565380067</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5319992565380067</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1669,51 +2038,78 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.248409290815923</v>
+      </c>
+      <c r="Z14" t="n">
         <v>0.01739704546744002</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AA14" t="n">
         <v>1846.004872720977</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
         <v>208.545571495524</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AC14" t="n">
         <v>-5.094679961225656</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
         <v>2.418353126284907</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>1.036830215313974</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.847583965944518</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.1040068291739516</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AH14" t="n">
         <v>8.753101635493774</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AI14" t="n">
         <v>1.642333751820618</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>174399797360.3778</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>11.27206131427067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.48203443327129</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>55.11019986941908</v>
+      </c>
+      <c r="C15" t="n">
         <v>19.81963700745474</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55.11019986941908</v>
       </c>
       <c r="D15" t="n">
         <v>2.952438189314062</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6356905005408267</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6356905005408267</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1755,51 +2151,78 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.2492529145159</v>
+      </c>
+      <c r="Z15" t="n">
         <v>0.01947690848130699</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AA15" t="n">
         <v>1866.941193872086</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AB15" t="n">
         <v>226.026125736655</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AC15" t="n">
         <v>-5.44141286813749</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AD15" t="n">
         <v>2.569150380285394</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AE15" t="n">
+        <v>1.107202533469998</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.839503122075741</v>
+      </c>
+      <c r="AG15" t="n">
         <v>0.1104513402409985</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AH15" t="n">
         <v>8.572316199529583</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AI15" t="n">
         <v>1.698161567663727</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>173789460057.4213</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>12.32086931958967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.47631622738632</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>49.48554879162086</v>
+      </c>
+      <c r="C16" t="n">
         <v>21.10763041551644</v>
-      </c>
-      <c r="C16" t="n">
-        <v>49.48554879162086</v>
       </c>
       <c r="D16" t="n">
         <v>5.80868725953725</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.121817305939112</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1823,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.121817305939112</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1841,51 +2264,78 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.252540208334968</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.02614807216016998</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AA16" t="n">
         <v>1896.591610650031</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
         <v>262.9862156880844</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AC16" t="n">
         <v>-6.066504624882788</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AD16" t="n">
         <v>3.110339246432172</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AE16" t="n">
+        <v>1.204652441581404</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.836695547741422</v>
+      </c>
+      <c r="AG16" t="n">
         <v>0.1214845237525694</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
         <v>8.380020178311289</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AI16" t="n">
         <v>1.757842370440394</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>173801695424.7649</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.22192870084391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.35763244318183</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>46.36788004968805</v>
+      </c>
+      <c r="C17" t="n">
         <v>23.1342762500515</v>
-      </c>
-      <c r="C17" t="n">
-        <v>46.36788004968805</v>
       </c>
       <c r="D17" t="n">
         <v>4.638314862611241</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.50189639446737</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1909,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.50189639446737</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1927,51 +2377,78 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.252618153319133</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.02740953437875311</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AA17" t="n">
         <v>1899.607557974005</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AB17" t="n">
         <v>250.33118776717</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AC17" t="n">
         <v>-6.338153193151018</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AD17" t="n">
         <v>3.397307173723182</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>1.2246302207974</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.826811081951849</v>
+      </c>
+      <c r="AG17" t="n">
         <v>0.1213911037671031</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AH17" t="n">
         <v>8.2672917255691</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AI17" t="n">
         <v>1.774013157089227</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>172552355765.4548</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.09748577799629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25.62064236797445</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>41.97813069728873</v>
+      </c>
+      <c r="C18" t="n">
         <v>24.03624459585487</v>
-      </c>
-      <c r="C18" t="n">
-        <v>41.97813069728873</v>
       </c>
       <c r="D18" t="n">
         <v>6.326179121394539</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.038803217487418</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1995,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.038803217487418</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2013,51 +2490,78 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.25517419073833</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.03167846258577671</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AA18" t="n">
         <v>1918.914538936323</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AB18" t="n">
         <v>268.6088083257904</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AC18" t="n">
         <v>-6.728312662984566</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
         <v>3.750063930849105</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>1.283133715506702</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.823143440867267</v>
+      </c>
+      <c r="AG18" t="n">
         <v>0.1280679896451321</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AH18" t="n">
         <v>8.116719928551362</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AI18" t="n">
         <v>1.796536213617284</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>172252290262.3272</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16.92131487183772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25.92967709475499</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>38.37767536798972</v>
+      </c>
+      <c r="C19" t="n">
         <v>24.05215305523166</v>
-      </c>
-      <c r="C19" t="n">
-        <v>38.37767536798972</v>
       </c>
       <c r="D19" t="n">
         <v>8.241916587025901</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.39857789499773</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2081,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.39857789499773</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2099,51 +2603,78 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.260071965741884</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.03883073678720245</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AA19" t="n">
         <v>1936.944520901957</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AB19" t="n">
         <v>286.114727429456</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AC19" t="n">
         <v>-7.752075638070175</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AD19" t="n">
         <v>4.499828510959734</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AE19" t="n">
+        <v>1.352050753210249</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.819311989970699</v>
+      </c>
+      <c r="AG19" t="n">
         <v>0.1371385668757474</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AH19" t="n">
         <v>7.957869280171375</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AI19" t="n">
         <v>1.849247090506852</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>171615274057.6472</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19.66456772420046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26.19588155013293</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>34.94838751010904</v>
+      </c>
+      <c r="C20" t="n">
         <v>23.85042246394621</v>
-      </c>
-      <c r="C20" t="n">
-        <v>34.94838751010904</v>
       </c>
       <c r="D20" t="n">
         <v>10.21302186693367</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.79228660887816</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2167,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.79228660887816</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2185,51 +2716,78 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.265140862692519</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.04461186343544311</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AA20" t="n">
         <v>1954.568006482204</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AB20" t="n">
         <v>302.1329935124126</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AC20" t="n">
         <v>-8.660219988523375</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AD20" t="n">
         <v>5.066392016039306</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
+        <v>1.409456352604048</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.815980124754266</v>
+      </c>
+      <c r="AG20" t="n">
         <v>0.1457353177332849</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AH20" t="n">
         <v>7.803526696195461</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AI20" t="n">
         <v>1.889766506706896</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>171009913184.5371</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>22.131572559827</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.87267490890685</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>31.94339759241375</v>
+      </c>
+      <c r="C21" t="n">
         <v>22.74622041857604</v>
-      </c>
-      <c r="C21" t="n">
-        <v>31.94339759241375</v>
       </c>
       <c r="D21" t="n">
         <v>12.21093470231118</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7.226772377792192</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2253,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.226772377792192</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2271,51 +2829,78 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.272982061069649</v>
+      </c>
+      <c r="Z21" t="n">
         <v>0.05198665350521548</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AA21" t="n">
         <v>1969.978709878658</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AB21" t="n">
         <v>316.0498125581364</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AC21" t="n">
         <v>-10.21091531625622</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AD21" t="n">
         <v>5.86883370797833</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AE21" t="n">
+        <v>1.470961659275547</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.811073544303136</v>
+      </c>
+      <c r="AG21" t="n">
         <v>0.1562375522813785</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AH21" t="n">
         <v>7.625784978425697</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AI21" t="n">
         <v>1.958545681888618</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>169794045368.1833</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>25.26248403172393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24.64055238634836</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>27.80452469764478</v>
+      </c>
+      <c r="C22" t="n">
         <v>21.25274882503955</v>
-      </c>
-      <c r="C22" t="n">
-        <v>27.80452469764478</v>
       </c>
       <c r="D22" t="n">
         <v>15.57085157182014</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10.73132251914715</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2339,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>10.73132251914715</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2357,51 +2942,78 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.284845321054575</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.05985793982608023</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AA22" t="n">
         <v>1996.200713394664</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AB22" t="n">
         <v>337.7521210642616</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AC22" t="n">
         <v>-12.06417246312632</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AD22" t="n">
         <v>6.669299994840346</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AE22" t="n">
+        <v>1.537049281463018</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.804827184562657</v>
+      </c>
+      <c r="AG22" t="n">
         <v>0.1714788632028532</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AH22" t="n">
         <v>7.361850390881773</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AI22" t="n">
         <v>2.03318915807749</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>168207971205.46</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29.35870048461555</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.69862396067251</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>59.78605265772893</v>
+      </c>
+      <c r="C23" t="n">
         <v>12.94677360981414</v>
-      </c>
-      <c r="C23" t="n">
-        <v>59.78605265772893</v>
       </c>
       <c r="D23" t="n">
         <v>2.071458063168219</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.4970917086162015</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2425,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4970917086162015</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2443,51 +3055,78 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.24789720071905</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0.01703421361986344</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AA23" t="n">
         <v>1829.432936207961</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AB23" t="n">
         <v>194.5359229531003</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AC23" t="n">
         <v>-4.517885222436833</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
         <v>2.342413511136046</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AE23" t="n">
+        <v>1.024822920959264</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.854843134766877</v>
+      </c>
+      <c r="AG23" t="n">
         <v>0.09543470603399078</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AH23" t="n">
         <v>8.835047045046414</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AI23" t="n">
         <v>1.535777422704193</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>174804349471.7881</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10.75982439500233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.11629087610016</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>55.25597239681475</v>
+      </c>
+      <c r="C24" t="n">
         <v>14.62169899185692</v>
-      </c>
-      <c r="C24" t="n">
-        <v>55.25597239681475</v>
       </c>
       <c r="D24" t="n">
         <v>2.295733512731911</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.7103042224962675</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2511,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7103042224962675</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2529,51 +3168,78 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.248530336101662</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.01938512517788404</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AA24" t="n">
         <v>1841.633143209984</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AB24" t="n">
         <v>202.3816663890206</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AC24" t="n">
         <v>-4.884745617838008</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AD24" t="n">
         <v>2.632730186938086</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
+        <v>1.082308697983093</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.84780344030002</v>
+      </c>
+      <c r="AG24" t="n">
         <v>0.09994899088701825</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AH24" t="n">
         <v>8.694488378477924</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AI24" t="n">
         <v>1.5836150074223</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>174091385017.3561</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>11.53824780168327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28.97995691733995</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>50.35327831911562</v>
+      </c>
+      <c r="C25" t="n">
         <v>16.44395713812345</v>
-      </c>
-      <c r="C25" t="n">
-        <v>50.35327831911562</v>
       </c>
       <c r="D25" t="n">
         <v>3.185006375350623</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.03780125007036</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2597,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.03780125007036</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2615,51 +3281,78 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.249959391486423</v>
+      </c>
+      <c r="Z25" t="n">
         <v>0.02307664646754815</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AA25" t="n">
         <v>1859.242021620291</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AB25" t="n">
         <v>219.6686467883856</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AC25" t="n">
         <v>-5.342234570731408</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AD25" t="n">
         <v>2.988762674433695</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AE25" t="n">
+        <v>1.148895517865113</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.841176490637277</v>
+      </c>
+      <c r="AG25" t="n">
         <v>0.1065652409568925</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AH25" t="n">
         <v>8.53215743748135</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AI25" t="n">
         <v>1.636501504486467</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>173493964804.2689</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>12.96079861140252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>30.34265377319738</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>46.34859570643516</v>
+      </c>
+      <c r="C26" t="n">
         <v>17.80474339614692</v>
-      </c>
-      <c r="C26" t="n">
-        <v>46.34859570643516</v>
       </c>
       <c r="D26" t="n">
         <v>4.073004266397291</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.431002857823243</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2683,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.431002857823243</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2701,51 +3394,78 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.251569652553843</v>
+      </c>
+      <c r="Z26" t="n">
         <v>0.02660818647152365</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AA26" t="n">
         <v>1874.369014877993</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AB26" t="n">
         <v>233.7827750446807</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AC26" t="n">
         <v>-5.757498915755457</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AD26" t="n">
         <v>3.326658615019689</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AE26" t="n">
+        <v>1.201417000933549</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.835893495493288</v>
+      </c>
+      <c r="AG26" t="n">
         <v>0.112260311158507</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AH26" t="n">
         <v>8.394800376906852</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AI26" t="n">
         <v>1.675082869941759</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>172989933759.0592</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14.31243279514014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.86528713449996</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>42.40093148684115</v>
+      </c>
+      <c r="C27" t="n">
         <v>18.23696715878395</v>
-      </c>
-      <c r="C27" t="n">
-        <v>42.40093148684115</v>
       </c>
       <c r="D27" t="n">
         <v>5.290206015657255</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.206608204217674</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2769,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.206608204217674</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2787,51 +3507,78 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.25437099548574</v>
+      </c>
+      <c r="Z27" t="n">
         <v>0.03193803030454426</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AA27" t="n">
         <v>1888.522296876517</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AB27" t="n">
         <v>248.7015154097846</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AC27" t="n">
         <v>-6.405330687502009</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AD27" t="n">
         <v>3.86801246377312</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AE27" t="n">
+        <v>1.258264007316168</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.831715763978221</v>
+      </c>
+      <c r="AG27" t="n">
         <v>0.1188191128917422</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AH27" t="n">
         <v>8.257133996825495</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AI27" t="n">
         <v>1.715493650301267</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>172440690506.889</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>16.26013894873025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31.70139237157215</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>38.63291780669091</v>
+      </c>
+      <c r="C28" t="n">
         <v>19.10423570636226</v>
-      </c>
-      <c r="C28" t="n">
-        <v>38.63291780669091</v>
       </c>
       <c r="D28" t="n">
         <v>7.016579441970052</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.544874673404641</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2855,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3.544874673404641</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2873,51 +3620,78 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.259109006563733</v>
+      </c>
+      <c r="Z28" t="n">
         <v>0.03889647897676301</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AA28" t="n">
         <v>1908.625083921418</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AB28" t="n">
         <v>268.3262209995152</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AC28" t="n">
         <v>-7.528630542893998</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AD28" t="n">
         <v>4.589834679450541</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
+        <v>1.329014056084413</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.825893256845006</v>
+      </c>
+      <c r="AG28" t="n">
         <v>0.1290665430053385</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AH28" t="n">
         <v>8.079933631752704</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AI28" t="n">
         <v>1.788739041612613</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>171638774728.3117</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>18.99147120347954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.7420363140709</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>35.29946336459976</v>
+      </c>
+      <c r="C29" t="n">
         <v>19.34137208626396</v>
-      </c>
-      <c r="C29" t="n">
-        <v>35.29946336459976</v>
       </c>
       <c r="D29" t="n">
         <v>8.488290469014574</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.128837766050812</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2941,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.128837766050812</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2959,51 +3733,78 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.264284865858452</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.04509242286438607</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AA29" t="n">
         <v>1924.534454712694</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AB29" t="n">
         <v>282.1894380959296</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AC29" t="n">
         <v>-8.668713231012978</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AD29" t="n">
         <v>5.222827047467528</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AE29" t="n">
+        <v>1.386178476007658</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.820214550483856</v>
+      </c>
+      <c r="AG29" t="n">
         <v>0.1379805743975732</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AH29" t="n">
         <v>7.915605804901404</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AI29" t="n">
         <v>1.850493355719852</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>170675463872.6213</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>21.46835024318854</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30.76237588603813</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>32.12872020698693</v>
+      </c>
+      <c r="C30" t="n">
         <v>18.31664101925855</v>
-      </c>
-      <c r="C30" t="n">
-        <v>32.12872020698693</v>
       </c>
       <c r="D30" t="n">
         <v>11.0502077792672</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7.742055108449174</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3027,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.742055108449174</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3045,51 +3846,78 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.273041887472892</v>
+      </c>
+      <c r="Z30" t="n">
         <v>0.05304218528784226</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AA30" t="n">
         <v>1944.45525054741</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AB30" t="n">
         <v>303.655158994235</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AC30" t="n">
         <v>-10.45824427832613</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AD30" t="n">
         <v>6.059471159808631</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AE30" t="n">
+        <v>1.455169515488278</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.815531309384652</v>
+      </c>
+      <c r="AG30" t="n">
         <v>0.1511517078432263</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AH30" t="n">
         <v>7.718060858733408</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AI30" t="n">
         <v>1.941272622660873</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>169511904638.1914</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>25.07833161519523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29.73442789455431</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>28.51150635643484</v>
+      </c>
+      <c r="C31" t="n">
         <v>17.25824278002907</v>
-      </c>
-      <c r="C31" t="n">
-        <v>28.51150635643484</v>
       </c>
       <c r="D31" t="n">
         <v>12.65461180418959</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>11.8412111647922</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3113,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>11.8412111647922</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3131,51 +3959,78 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.284856197924205</v>
+      </c>
+      <c r="Z31" t="n">
         <v>0.06136890664099688</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AA31" t="n">
         <v>1959.846181129472</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AB31" t="n">
         <v>313.2213556904683</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AC31" t="n">
         <v>-12.78837389426011</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AD31" t="n">
         <v>6.949359547274402</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AE31" t="n">
+        <v>1.510598592462082</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.803528277621907</v>
+      </c>
+      <c r="AG31" t="n">
         <v>0.1642509978251735</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AH31" t="n">
         <v>7.453239485040992</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AI31" t="n">
         <v>2.045982747978778</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>166882847979.4066</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>28.75866978381769</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.37782838567884</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>57.91933065856235</v>
+      </c>
+      <c r="C32" t="n">
         <v>9.609360149062256</v>
-      </c>
-      <c r="C32" t="n">
-        <v>57.91933065856235</v>
       </c>
       <c r="D32" t="n">
         <v>1.589063142119515</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5044176645770377</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3199,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5044176645770377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3217,51 +4072,78 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.24717545640751</v>
+      </c>
+      <c r="Z32" t="n">
         <v>0.01642425646165967</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AA32" t="n">
         <v>1814.229384283334</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AB32" t="n">
         <v>172.1043267389533</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AC32" t="n">
         <v>-4.028868396605834</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AD32" t="n">
         <v>2.290221615134703</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AE32" t="n">
+        <v>0.9985538216360494</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.85865511365654</v>
+      </c>
+      <c r="AG32" t="n">
         <v>0.08608831927901155</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AH32" t="n">
         <v>8.877229809856253</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AI32" t="n">
         <v>1.433340635221596</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>174809504861.4629</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>10.00401325359553</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33.11659379389907</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>52.9251697901506</v>
+      </c>
+      <c r="C33" t="n">
         <v>10.973333777346</v>
-      </c>
-      <c r="C33" t="n">
-        <v>52.9251697901506</v>
       </c>
       <c r="D33" t="n">
         <v>2.192065154734242</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.7928374838700868</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3285,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.7928374838700868</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3303,51 +4185,78 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.248245449264949</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.02005287698639602</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AA33" t="n">
         <v>1828.174076480354</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AB33" t="n">
         <v>187.8867026100067</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AC33" t="n">
         <v>-4.483383626027237</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AD33" t="n">
         <v>2.675542255443848</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AE33" t="n">
+        <v>1.064384588384168</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.852345411028055</v>
+      </c>
+      <c r="AG33" t="n">
         <v>0.0923369200142214</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AH33" t="n">
         <v>8.727387485378394</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AI33" t="n">
         <v>1.49184845250026</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>174173658695.8939</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>11.29764168752849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>35.40504769440309</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>48.28190961500265</v>
+      </c>
+      <c r="C34" t="n">
         <v>12.25967062301765</v>
-      </c>
-      <c r="C34" t="n">
-        <v>48.28190961500265</v>
       </c>
       <c r="D34" t="n">
         <v>2.949080621569796</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.104291446006826</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3371,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.104291446006826</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3389,51 +4298,78 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.249502814772148</v>
+      </c>
+      <c r="Z34" t="n">
         <v>0.02340667151348477</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AA34" t="n">
         <v>1842.53899141852</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AB34" t="n">
         <v>203.9119805416204</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AC34" t="n">
         <v>-4.879964777771954</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AD34" t="n">
         <v>2.9914260627542</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AE34" t="n">
+        <v>1.121068459962941</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.846710130912973</v>
+      </c>
+      <c r="AG34" t="n">
         <v>0.09831534675329141</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AH34" t="n">
         <v>8.584083714612751</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AI34" t="n">
         <v>1.537891595222004</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>173624059338.4766</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>12.58591134731579</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37.57764389518124</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>44.21310951760462</v>
+      </c>
+      <c r="C35" t="n">
         <v>12.9045729319361</v>
-      </c>
-      <c r="C35" t="n">
-        <v>44.21310951760462</v>
       </c>
       <c r="D35" t="n">
         <v>3.638680888316341</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.665992766961695</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3457,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.665992766961695</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3475,51 +4411,78 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.251343058424642</v>
+      </c>
+      <c r="Z35" t="n">
         <v>0.02778607059658024</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AA35" t="n">
         <v>1853.772168131376</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AB35" t="n">
         <v>215.3435763930484</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AC35" t="n">
         <v>-5.401715275000322</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AD35" t="n">
         <v>3.451649138168169</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AE35" t="n">
+        <v>1.168578906769719</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.841729983583109</v>
+      </c>
+      <c r="AG35" t="n">
         <v>0.1037615697629466</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AH35" t="n">
         <v>8.455130350823579</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AI35" t="n">
         <v>1.578391418888722</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>172998223101.7466</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>14.07807019762925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38.09115608907656</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>40.34117942701062</v>
+      </c>
+      <c r="C36" t="n">
         <v>14.24077169642902</v>
-      </c>
-      <c r="C36" t="n">
-        <v>40.34117942701062</v>
       </c>
       <c r="D36" t="n">
         <v>4.820091728927136</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.50680105855667</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3543,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.50680105855667</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3561,51 +4524,78 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.254362853975912</v>
+      </c>
+      <c r="Z36" t="n">
         <v>0.03320309666656895</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AA36" t="n">
         <v>1871.328810638551</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AB36" t="n">
         <v>234.1195505358265</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AC36" t="n">
         <v>-6.20754810295613</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AD36" t="n">
         <v>3.995672476732513</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AE36" t="n">
+        <v>1.232043411941516</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.835622560841899</v>
+      </c>
+      <c r="AG36" t="n">
         <v>0.1125949163041201</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AH36" t="n">
         <v>8.296085052838539</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AI36" t="n">
         <v>1.646076820663437</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>172294719597.2932</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>16.16661376662987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>38.33579750611559</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>37.73458860799308</v>
+      </c>
+      <c r="C37" t="n">
         <v>14.22310473337481</v>
-      </c>
-      <c r="C37" t="n">
-        <v>37.73458860799308</v>
       </c>
       <c r="D37" t="n">
         <v>6.084502628677954</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.622006523838574</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3629,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.622006523838574</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3647,51 +4637,78 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.258142296875971</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.03884687487624496</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AA37" t="n">
         <v>1883.454069982317</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AB37" t="n">
         <v>249.5231895669747</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AC37" t="n">
         <v>-7.149269888331517</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AD37" t="n">
         <v>4.580602116731223</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AE37" t="n">
+        <v>1.28240040678782</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.832246605328699</v>
+      </c>
+      <c r="AG37" t="n">
         <v>0.1204672738191375</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AH37" t="n">
         <v>8.177522697748598</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AI37" t="n">
         <v>1.706887303940507</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>171698289789.0482</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>18.36159891136233</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.89528654115976</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>34.00711535766091</v>
+      </c>
+      <c r="C38" t="n">
         <v>15.01810551709215</v>
-      </c>
-      <c r="C38" t="n">
-        <v>34.00711535766091</v>
       </c>
       <c r="D38" t="n">
         <v>7.695501594568473</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.383990989518713</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3715,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.383990989518713</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3733,51 +4750,78 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.263908973360103</v>
+      </c>
+      <c r="Z38" t="n">
         <v>0.04571517909500261</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AA38" t="n">
         <v>1903.055727052831</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AB38" t="n">
         <v>267.955517596444</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AC38" t="n">
         <v>-8.499983747448454</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AD38" t="n">
         <v>5.257125421822825</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AE38" t="n">
+        <v>1.350475475582499</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.824883307887536</v>
+      </c>
+      <c r="AG38" t="n">
         <v>0.1317698614362234</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AH38" t="n">
         <v>7.983231044902072</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AI38" t="n">
         <v>1.793112124583807</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>170557202652.5442</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21.1747120969278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.04916938976096</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>31.37594742238257</v>
+      </c>
+      <c r="C39" t="n">
         <v>14.93908228947561</v>
-      </c>
-      <c r="C39" t="n">
-        <v>31.37594742238257</v>
       </c>
       <c r="D39" t="n">
         <v>8.703754693933551</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>7.93204620444731</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3801,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.93204620444731</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3819,51 +4863,78 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.271234202189287</v>
+      </c>
+      <c r="Z39" t="n">
         <v>0.05292177768615149</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AA39" t="n">
         <v>1915.270699666103</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AB39" t="n">
         <v>276.8059324216907</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AC39" t="n">
         <v>-10.28152875885367</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AD39" t="n">
         <v>6.021516298486138</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AE39" t="n">
+        <v>1.405145726075176</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.81610695583278</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0.1421670544178495</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AH39" t="n">
         <v>7.799204875257918</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AI39" t="n">
         <v>1.891498966762572</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>168836063762.4063</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>23.99646716738692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35.00856026880581</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>28.41328965570146</v>
+      </c>
+      <c r="C40" t="n">
         <v>13.49101090758822</v>
-      </c>
-      <c r="C40" t="n">
-        <v>28.41328965570146</v>
       </c>
       <c r="D40" t="n">
         <v>10.74232139561721</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.34481777228729</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3887,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>12.34481777228729</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3905,51 +4976,78 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.28418236025744</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.06203850431051611</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AA40" t="n">
         <v>1931.991337486817</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AB40" t="n">
         <v>292.9426643223443</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AC40" t="n">
         <v>-13.03630535919964</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AD40" t="n">
         <v>6.993463708553959</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AE40" t="n">
+        <v>1.466914891728109</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.805162337519365</v>
+      </c>
+      <c r="AG40" t="n">
         <v>0.1579263444042211</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AH40" t="n">
         <v>7.536729373264516</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AI40" t="n">
         <v>2.030469900039257</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>166259238270.7961</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>28.17475479974938</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37.58863922492247</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>53.11798962683208</v>
+      </c>
+      <c r="C41" t="n">
         <v>7.280669539785599</v>
-      </c>
-      <c r="C41" t="n">
-        <v>53.11798962683208</v>
       </c>
       <c r="D41" t="n">
         <v>1.532428398584247</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.4802732098756072</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3973,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.4802732098756072</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3991,51 +5089,78 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.24662522952733</v>
+      </c>
+      <c r="Z41" t="n">
         <v>0.01611792915068352</v>
       </c>
-      <c r="V41" t="n">
+      <c r="AA41" t="n">
         <v>1808.239641107628</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AB41" t="n">
         <v>159.2970297831138</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AC41" t="n">
         <v>-3.636299676179426</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AD41" t="n">
         <v>2.152628046095119</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AE41" t="n">
+        <v>0.9830070585827929</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.859216760780101</v>
+      </c>
+      <c r="AG41" t="n">
         <v>0.07917362595361378</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AH41" t="n">
         <v>8.835891679616507</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AI41" t="n">
         <v>1.3515369856457</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>174590343967.9705</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>9.618800849735271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.4685427958547</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>48.6819596677876</v>
+      </c>
+      <c r="C42" t="n">
         <v>8.207754828513329</v>
-      </c>
-      <c r="C42" t="n">
-        <v>48.6819596677876</v>
       </c>
       <c r="D42" t="n">
         <v>1.960066248394547</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.6816764594498212</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4059,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.6816764594498212</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4077,51 +5202,78 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.247326229575598</v>
+      </c>
+      <c r="Z42" t="n">
         <v>0.01880086586279406</v>
       </c>
-      <c r="V42" t="n">
+      <c r="AA42" t="n">
         <v>1818.68382189645</v>
       </c>
-      <c r="W42" t="n">
+      <c r="AB42" t="n">
         <v>171.5358855826844</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AC42" t="n">
         <v>-3.916494663786127</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AD42" t="n">
         <v>2.421695666149761</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AE42" t="n">
+        <v>1.027122039361656</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.854121478833429</v>
+      </c>
+      <c r="AG42" t="n">
         <v>0.08383711990900984</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AH42" t="n">
         <v>8.713002271277935</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AI42" t="n">
         <v>1.389207621495003</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>174057574263.8782</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>10.56026866694695</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.41365999634309</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>45.39868393715567</v>
+      </c>
+      <c r="C43" t="n">
         <v>8.999093989015684</v>
-      </c>
-      <c r="C43" t="n">
-        <v>45.39868393715567</v>
       </c>
       <c r="D43" t="n">
         <v>2.232970990007884</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.9555910874776881</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4145,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9555910874776881</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4163,51 +5315,78 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.248147574246747</v>
+      </c>
+      <c r="Z43" t="n">
         <v>0.02152349612150524</v>
       </c>
-      <c r="V43" t="n">
+      <c r="AA43" t="n">
         <v>1826.726076183138</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AB43" t="n">
         <v>179.2341687858081</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AC43" t="n">
         <v>-4.220984231619052</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AD43" t="n">
         <v>2.725126528949924</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AE43" t="n">
+        <v>1.060460095236781</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.849635136103705</v>
+      </c>
+      <c r="AG43" t="n">
         <v>0.08781957068462755</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AH43" t="n">
         <v>8.614216723080775</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AI43" t="n">
         <v>1.422324757136511</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>173545857530.4607</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>11.42437609803237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44.05056700894834</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>40.9711385049328</v>
+      </c>
+      <c r="C44" t="n">
         <v>9.890677495893094</v>
-      </c>
-      <c r="C44" t="n">
-        <v>40.9711385049328</v>
       </c>
       <c r="D44" t="n">
         <v>3.582962479712098</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.504654510513664</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4231,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.504654510513664</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4249,51 +5428,78 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.250459377872785</v>
+      </c>
+      <c r="Z44" t="n">
         <v>0.02682561572720428</v>
       </c>
-      <c r="V44" t="n">
+      <c r="AA44" t="n">
         <v>1843.565591080131</v>
       </c>
-      <c r="W44" t="n">
+      <c r="AB44" t="n">
         <v>204.9714206893031</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AC44" t="n">
         <v>-4.800828487715472</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AD44" t="n">
         <v>3.208694179126411</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AE44" t="n">
+        <v>1.121589017939807</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.845301526430715</v>
+      </c>
+      <c r="AG44" t="n">
         <v>0.0965251354987447</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AH44" t="n">
         <v>8.466966945027915</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AI44" t="n">
         <v>1.480117606964709</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>173111861225.6873</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>13.52825383315526</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45.28527361475503</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>38.05554080101164</v>
+      </c>
+      <c r="C45" t="n">
         <v>10.45016941021403</v>
-      </c>
-      <c r="C45" t="n">
-        <v>38.05554080101164</v>
       </c>
       <c r="D45" t="n">
         <v>4.05760531167356</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.151410862345743</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4317,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>2.151410862345743</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4335,51 +5541,78 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.252411658733325</v>
+      </c>
+      <c r="Z45" t="n">
         <v>0.03095282062176732</v>
       </c>
-      <c r="V45" t="n">
+      <c r="AA45" t="n">
         <v>1852.242822712511</v>
       </c>
-      <c r="W45" t="n">
+      <c r="AB45" t="n">
         <v>213.1614044856885</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AC45" t="n">
         <v>-5.367300049169668</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AD45" t="n">
         <v>3.649523120293471</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AE45" t="n">
+        <v>1.157088769925018</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.840658068735649</v>
+      </c>
+      <c r="AG45" t="n">
         <v>0.1018977667132576</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AH45" t="n">
         <v>8.360768390150598</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AI45" t="n">
         <v>1.523919880415215</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>172469011267.0223</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>14.90696807021147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45.11415223222625</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>35.43340443761144</v>
+      </c>
+      <c r="C46" t="n">
         <v>10.88678210520005</v>
-      </c>
-      <c r="C46" t="n">
-        <v>35.43340443761144</v>
       </c>
       <c r="D46" t="n">
         <v>5.105603303705024</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.460057921257236</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4403,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.460057921257236</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4421,51 +5654,78 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.256551902106921</v>
+      </c>
+      <c r="Z46" t="n">
         <v>0.03774512712960618</v>
       </c>
-      <c r="V46" t="n">
+      <c r="AA46" t="n">
         <v>1864.986554005233</v>
       </c>
-      <c r="W46" t="n">
+      <c r="AB46" t="n">
         <v>228.820640115054</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AC46" t="n">
         <v>-6.533251677848139</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AD46" t="n">
         <v>4.375147715580694</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AE46" t="n">
+        <v>1.216307848583865</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.835324882132375</v>
+      </c>
+      <c r="AG46" t="n">
         <v>0.1115694150144273</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AH46" t="n">
         <v>8.225087575242839</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AI46" t="n">
         <v>1.611128225553049</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>171602630889.0799</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>17.39769765459324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44.97584185956661</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>32.0942836230312</v>
+      </c>
+      <c r="C47" t="n">
         <v>11.26384164075777</v>
-      </c>
-      <c r="C47" t="n">
-        <v>32.0942836230312</v>
       </c>
       <c r="D47" t="n">
         <v>6.302047026935472</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>5.363985849708929</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4489,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>5.363985849708929</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4507,51 +5767,78 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.262325088882983</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.04519229896075171</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AA47" t="n">
         <v>1879.925142298614</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AB47" t="n">
         <v>244.2319599421378</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AC47" t="n">
         <v>-8.024936354289267</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AD47" t="n">
         <v>5.108179535392596</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AE47" t="n">
+        <v>1.278990805502644</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.827764446155631</v>
+      </c>
+      <c r="AG47" t="n">
         <v>0.1227780247380687</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AH47" t="n">
         <v>8.046246763814068</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AI47" t="n">
         <v>1.709770449615942</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>170297208840.7375</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>20.24802259857932</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>42.0865253634753</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>30.20551982470235</v>
+      </c>
+      <c r="C48" t="n">
         <v>11.61062958759157</v>
-      </c>
-      <c r="C48" t="n">
-        <v>30.20551982470235</v>
       </c>
       <c r="D48" t="n">
         <v>7.933285538006333</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>8.164039686224461</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4575,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>8.164039686224461</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4593,51 +5880,78 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.270882874001005</v>
+      </c>
+      <c r="Z48" t="n">
         <v>0.05337959878309732</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AA48" t="n">
         <v>1897.866015794312</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AB48" t="n">
         <v>263.3428581176036</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AC48" t="n">
         <v>-10.18430042650438</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AD48" t="n">
         <v>5.978418731174595</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AE48" t="n">
+        <v>1.357639101757916</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.819129745728971</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.1372934475010165</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AH48" t="n">
         <v>7.848168989507927</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AI48" t="n">
         <v>1.849931607495227</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>168647902568.1844</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>23.72685710169529</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>40.81585186348995</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>27.19589965294441</v>
+      </c>
+      <c r="C49" t="n">
         <v>11.45538272157001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>27.19589965294441</v>
       </c>
       <c r="D49" t="n">
         <v>9.05861416233218</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>11.47425159966346</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4661,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>11.47425159966346</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4679,51 +5993,78 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.280214634216557</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.06038257678424401</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AA49" t="n">
         <v>1911.895943236241</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AB49" t="n">
         <v>273.266600994712</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AC49" t="n">
         <v>-12.19586695638432</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AD49" t="n">
         <v>6.628266439494642</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AE49" t="n">
+        <v>1.407527877903814</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.807842869208693</v>
+      </c>
+      <c r="AG49" t="n">
         <v>0.1491778924153696</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AH49" t="n">
         <v>7.621670965023038</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AI49" t="n">
         <v>1.957039338609674</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>166404337745.1703</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>26.72124840546342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45.37200448015243</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>47.58367348944883</v>
+      </c>
+      <c r="C50" t="n">
         <v>5.223833584071546</v>
-      </c>
-      <c r="C50" t="n">
-        <v>47.58367348944883</v>
       </c>
       <c r="D50" t="n">
         <v>1.268955264287828</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.5515331820393581</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4747,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.5515331820393581</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4765,51 +6106,78 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.246157414358781</v>
+      </c>
+      <c r="Z50" t="n">
         <v>0.01650675275345274</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AA50" t="n">
         <v>1802.78064547813</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AB50" t="n">
         <v>141.3045690310867</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AC50" t="n">
         <v>-3.350434456507965</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AD50" t="n">
         <v>2.142422444745051</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AE50" t="n">
+        <v>0.9466844637259466</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.857912038206696</v>
+      </c>
+      <c r="AG50" t="n">
         <v>0.07229919356232063</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AH50" t="n">
         <v>8.770975246959415</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AI50" t="n">
         <v>1.275115202946909</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>174120761926.6249</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>9.278491933292349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>48.78786662406539</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>42.64463011182583</v>
+      </c>
+      <c r="C51" t="n">
         <v>6.144711966491161</v>
-      </c>
-      <c r="C51" t="n">
-        <v>42.64463011182583</v>
       </c>
       <c r="D51" t="n">
         <v>1.746867803426478</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.6759234941911552</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4833,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6759234941911552</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4851,51 +6219,78 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.246666355511694</v>
+      </c>
+      <c r="Z51" t="n">
         <v>0.01848949497671528</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AA51" t="n">
         <v>1813.793750480788</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AB51" t="n">
         <v>156.2722053331537</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AC51" t="n">
         <v>-3.497233308448993</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AD51" t="n">
         <v>2.270210503507955</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AE51" t="n">
+        <v>0.9801756226662515</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.852818578261152</v>
+      </c>
+      <c r="AG51" t="n">
         <v>0.07679224333612204</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AH51" t="n">
         <v>8.64196624642601</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AI51" t="n">
         <v>1.299463027721608</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>173615146294.1881</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>10.08250224447181</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50.73675625671652</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>39.73609779881278</v>
+      </c>
+      <c r="C52" t="n">
         <v>6.684722573324661</v>
-      </c>
-      <c r="C52" t="n">
-        <v>39.73609779881278</v>
       </c>
       <c r="D52" t="n">
         <v>1.918285343225266</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.9241380279207699</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4919,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9241380279207699</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4937,51 +6332,78 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.247341589630281</v>
+      </c>
+      <c r="Z52" t="n">
         <v>0.02093074681060939</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AA52" t="n">
         <v>1819.810792892937</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AB52" t="n">
         <v>161.7862543444157</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AC52" t="n">
         <v>-3.723492075321114</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AD52" t="n">
         <v>2.535657421572502</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AE52" t="n">
+        <v>1.000353952266687</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.848994119304441</v>
+      </c>
+      <c r="AG52" t="n">
         <v>0.07998154867036784</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AH52" t="n">
         <v>8.558739521406244</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AI52" t="n">
         <v>1.321868675660055</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>173151415134.2687</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>10.8027177807294</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51.96609868449762</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>36.51395857641639</v>
+      </c>
+      <c r="C53" t="n">
         <v>7.125557036648022</v>
-      </c>
-      <c r="C53" t="n">
-        <v>36.51395857641639</v>
       </c>
       <c r="D53" t="n">
         <v>2.908620861069055</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1.485764841368929</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5005,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.485764841368929</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -5023,51 +6445,78 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.249432026360896</v>
+      </c>
+      <c r="Z53" t="n">
         <v>0.02613434287937934</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AA53" t="n">
         <v>1831.477901479313</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AB53" t="n">
         <v>182.6578015993563</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AC53" t="n">
         <v>-4.267143899904623</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AD53" t="n">
         <v>3.037407874301898</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AE53" t="n">
+        <v>1.044721758135614</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.845690383055076</v>
+      </c>
+      <c r="AG53" t="n">
         <v>0.087552317304962</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AH53" t="n">
         <v>8.448512326713377</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AI53" t="n">
         <v>1.373272575262313</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>172745343023.9356</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>12.72612202078404</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52.45736467440484</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>33.94381032547561</v>
+      </c>
+      <c r="C54" t="n">
         <v>7.818356008967962</v>
-      </c>
-      <c r="C54" t="n">
-        <v>33.94381032547561</v>
       </c>
       <c r="D54" t="n">
         <v>3.48038624477838</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2.300082746373203</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5091,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>2.300082746373203</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -5109,51 +6558,78 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.251922007103071</v>
+      </c>
+      <c r="Z54" t="n">
         <v>0.03136456619215159</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AA54" t="n">
         <v>1841.294138540393</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AB54" t="n">
         <v>194.6042654912872</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AC54" t="n">
         <v>-5.013693058505862</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AD54" t="n">
         <v>3.590387282908146</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AE54" t="n">
+        <v>1.08970272706616</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.840693826513632</v>
+      </c>
+      <c r="AG54" t="n">
         <v>0.09506810679981141</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AH54" t="n">
         <v>8.337360200103499</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AI54" t="n">
         <v>1.439120569864712</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>172038922861.0346</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>14.51415311443835</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51.85220057025387</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>31.97839661068264</v>
+      </c>
+      <c r="C55" t="n">
         <v>8.53527245083175</v>
-      </c>
-      <c r="C55" t="n">
-        <v>31.97839661068264</v>
       </c>
       <c r="D55" t="n">
         <v>4.252332960149705</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.381797408082039</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5177,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>3.381797408082039</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -5195,51 +6671,78 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.255298648407813</v>
+      </c>
+      <c r="Z55" t="n">
         <v>0.03697844851397947</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AA55" t="n">
         <v>1852.438872481081</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AB55" t="n">
         <v>208.8803546038069</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AC55" t="n">
         <v>-5.988293646345637</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AD55" t="n">
         <v>4.163938861748861</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AE55" t="n">
+        <v>1.144025547785542</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.835602377170175</v>
+      </c>
+      <c r="AG55" t="n">
         <v>0.1039704844714694</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AH55" t="n">
         <v>8.222625121503787</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AI55" t="n">
         <v>1.521481844261621</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>171270778080.2155</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>16.58358521999915</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>51.37276147532685</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>29.88165140595067</v>
+      </c>
+      <c r="C56" t="n">
         <v>8.790516358863357</v>
-      </c>
-      <c r="C56" t="n">
-        <v>29.88165140595067</v>
       </c>
       <c r="D56" t="n">
         <v>4.817071318855069</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>5.137999441004045</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5263,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>5.137999441004045</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -5281,51 +6784,78 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.260220862995845</v>
+      </c>
+      <c r="Z56" t="n">
         <v>0.04386412301033653</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AA56" t="n">
         <v>1861.438762891978</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AB56" t="n">
         <v>217.3992985995519</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AC56" t="n">
         <v>-7.404815575400058</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AD56" t="n">
         <v>4.855416672966035</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AE56" t="n">
+        <v>1.195499699307993</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.82853498783899</v>
+      </c>
+      <c r="AG56" t="n">
         <v>0.1135459249647726</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AH56" t="n">
         <v>8.085637514775369</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AI56" t="n">
         <v>1.621859413550102</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>169984312338.6606</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>19.01777966875251</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>49.881475732815</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>27.44639767550942</v>
+      </c>
+      <c r="C57" t="n">
         <v>9.097479396405918</v>
-      </c>
-      <c r="C57" t="n">
-        <v>27.44639767550942</v>
       </c>
       <c r="D57" t="n">
         <v>6.385106315226083</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>7.189540880043592</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5349,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>7.189540880043592</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5367,51 +6897,78 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.266705592675497</v>
+      </c>
+      <c r="Z57" t="n">
         <v>0.05056947647223296</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AA57" t="n">
         <v>1878.032354328183</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AB57" t="n">
         <v>238.9294845076311</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AC57" t="n">
         <v>-8.9391977369001</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AD57" t="n">
         <v>5.441441972472609</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AE57" t="n">
+        <v>1.260838866939845</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.822050895690841</v>
+      </c>
+      <c r="AG57" t="n">
         <v>0.1259856130237835</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AH57" t="n">
         <v>7.91523055084948</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AI57" t="n">
         <v>1.727016787533407</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>168806018309.6158</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>21.91954335299658</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>46.147295090649</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>25.79843573181753</v>
+      </c>
+      <c r="C58" t="n">
         <v>8.858468480519768</v>
-      </c>
-      <c r="C58" t="n">
-        <v>25.79843573181753</v>
       </c>
       <c r="D58" t="n">
         <v>7.658075855521748</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>11.53772484149196</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5435,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>11.53772484149196</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5453,51 +7010,78 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.278884354573777</v>
+      </c>
+      <c r="Z58" t="n">
         <v>0.06033155653299953</v>
       </c>
-      <c r="V58" t="n">
+      <c r="AA58" t="n">
         <v>1893.132140490695</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AB58" t="n">
         <v>252.9248188175117</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AC58" t="n">
         <v>-11.95489947297237</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AD58" t="n">
         <v>6.429520058875785</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AE58" t="n">
+        <v>1.340610751339035</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.808737216800757</v>
+      </c>
+      <c r="AG58" t="n">
         <v>0.1429482959700767</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AH58" t="n">
         <v>7.666832004451789</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AI58" t="n">
         <v>1.911541131955564</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>166026646966.8201</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>26.00551269571901</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56.70921047332411</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>36.74922850445188</v>
+      </c>
+      <c r="C59" t="n">
         <v>4.45933779448573</v>
-      </c>
-      <c r="C59" t="n">
-        <v>36.74922850445188</v>
       </c>
       <c r="D59" t="n">
         <v>1.479037996335657</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.6031852314026278</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5521,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0.6031852314026278</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5539,51 +7123,78 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.24583211944827</v>
+      </c>
+      <c r="Z59" t="n">
         <v>0.01740178845315576</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AA59" t="n">
         <v>1809.884110433831</v>
       </c>
-      <c r="W59" t="n">
+      <c r="AB59" t="n">
         <v>139.8836375896841</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AC59" t="n">
         <v>-3.031786591218217</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AD59" t="n">
         <v>2.025358101991432</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AE59" t="n">
+        <v>0.9088457117679861</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.851045493191809</v>
+      </c>
+      <c r="AG59" t="n">
         <v>0.06936782305242623</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AH59" t="n">
         <v>8.569387607330375</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AI59" t="n">
         <v>1.203316242282515</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>173174488792.6931</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>9.377285482880726</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58.23723423416003</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>34.31338024363218</v>
+      </c>
+      <c r="C60" t="n">
         <v>4.536878620919904</v>
-      </c>
-      <c r="C60" t="n">
-        <v>34.31338024363218</v>
       </c>
       <c r="D60" t="n">
         <v>1.953834188367503</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.9586727129203946</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5607,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.9586727129203946</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5625,51 +7236,78 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.247000547585864</v>
+      </c>
+      <c r="Z60" t="n">
         <v>0.02130045397373641</v>
       </c>
-      <c r="V60" t="n">
+      <c r="AA60" t="n">
         <v>1815.769244665606</v>
       </c>
-      <c r="W60" t="n">
+      <c r="AB60" t="n">
         <v>151.3022445361542</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AC60" t="n">
         <v>-3.339746289076316</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AD60" t="n">
         <v>2.4274130012333</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AE60" t="n">
+        <v>0.9274643663327937</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.848715933207072</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.07376622362674641</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AH60" t="n">
         <v>8.497920215669925</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AI60" t="n">
         <v>1.229763406140413</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>172845305584.4266</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>10.63172895477734</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59.34611390594659</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>31.75357300774514</v>
+      </c>
+      <c r="C61" t="n">
         <v>5.278994683623767</v>
-      </c>
-      <c r="C61" t="n">
-        <v>31.75357300774514</v>
       </c>
       <c r="D61" t="n">
         <v>2.342432744028005</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1.278885658656497</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5693,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.278885658656497</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5711,51 +7349,78 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.248060177170783</v>
+      </c>
+      <c r="Z61" t="n">
         <v>0.02418905334103039</v>
       </c>
-      <c r="V61" t="n">
+      <c r="AA61" t="n">
         <v>1823.822495380722</v>
       </c>
-      <c r="W61" t="n">
+      <c r="AB61" t="n">
         <v>162.630477938699</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AC61" t="n">
         <v>-3.626491216119732</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AD61" t="n">
         <v>2.699405705324574</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AE61" t="n">
+        <v>0.9546148524781343</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.844990962634264</v>
+      </c>
+      <c r="AG61" t="n">
         <v>0.0788050276053151</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AH61" t="n">
         <v>8.411801508251644</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AI61" t="n">
         <v>1.262040669588086</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>172423519326.7019</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>11.64095501589098</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>59.33493295870724</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>29.99528848365004</v>
+      </c>
+      <c r="C62" t="n">
         <v>5.752837488642101</v>
-      </c>
-      <c r="C62" t="n">
-        <v>29.99528848365004</v>
       </c>
       <c r="D62" t="n">
         <v>2.914852635871863</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2.002088433128751</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5779,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2.002088433128751</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5797,51 +7462,78 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.250331727977072</v>
+      </c>
+      <c r="Z62" t="n">
         <v>0.02932879966732232</v>
       </c>
-      <c r="V62" t="n">
+      <c r="AA62" t="n">
         <v>1831.956111086357</v>
       </c>
-      <c r="W62" t="n">
+      <c r="AB62" t="n">
         <v>175.8022254655756</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AC62" t="n">
         <v>-4.296603370469128</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AD62" t="n">
         <v>3.233605779627207</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AE62" t="n">
+        <v>0.9966130288951446</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.841370457713223</v>
+      </c>
+      <c r="AG62" t="n">
         <v>0.08625357428706135</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AH62" t="n">
         <v>8.326103638935868</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AI62" t="n">
         <v>1.326537735811675</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>171888705531.6968</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>13.40985369639066</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>58.39353789451046</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>28.72947600949317</v>
+      </c>
+      <c r="C63" t="n">
         <v>6.257907215926917</v>
-      </c>
-      <c r="C63" t="n">
-        <v>28.72947600949317</v>
       </c>
       <c r="D63" t="n">
         <v>3.686192936964952</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2.932885943104509</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5865,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>2.932885943104509</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5883,51 +7575,78 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.253328324573631</v>
+      </c>
+      <c r="Z63" t="n">
         <v>0.0346884499810637</v>
       </c>
-      <c r="V63" t="n">
+      <c r="AA63" t="n">
         <v>1841.442540380199</v>
       </c>
-      <c r="W63" t="n">
+      <c r="AB63" t="n">
         <v>191.5431379373314</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AC63" t="n">
         <v>-5.15969551143198</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AD63" t="n">
         <v>3.770269184798587</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AE63" t="n">
+        <v>1.049220338837998</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.837753113101866</v>
+      </c>
+      <c r="AG63" t="n">
         <v>0.09500510175245287</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AH63" t="n">
         <v>8.237211329330723</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AI63" t="n">
         <v>1.407001033805207</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>171321876897.0823</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>15.41005718868051</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>57.3323684814925</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>27.03294124676937</v>
+      </c>
+      <c r="C64" t="n">
         <v>6.626916797840604</v>
-      </c>
-      <c r="C64" t="n">
-        <v>27.03294124676937</v>
       </c>
       <c r="D64" t="n">
         <v>4.283868902542922</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>4.723904571354601</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5951,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>4.723904571354601</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5969,51 +7688,78 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.258394474275884</v>
+      </c>
+      <c r="Z64" t="n">
         <v>0.0422622480706156</v>
       </c>
-      <c r="V64" t="n">
+      <c r="AA64" t="n">
         <v>1850.859046094969</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AB64" t="n">
         <v>202.3200598468264</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AC64" t="n">
         <v>-6.655098692012342</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AD64" t="n">
         <v>4.517802087094323</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AE64" t="n">
+        <v>1.110244165427303</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.830736001612045</v>
+      </c>
+      <c r="AG64" t="n">
         <v>0.1061043392779721</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AH64" t="n">
         <v>8.103649949123939</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AI64" t="n">
         <v>1.525445472123222</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>170050535155.6914</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>18.08217167270033</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>54.83283250514894</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>25.46424470379871</v>
+      </c>
+      <c r="C65" t="n">
         <v>7.032440610391723</v>
-      </c>
-      <c r="C65" t="n">
-        <v>25.46424470379871</v>
       </c>
       <c r="D65" t="n">
         <v>5.527364889749399</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>7.143117290911234</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6037,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>7.143117290911234</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -6055,51 +7801,78 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.265609399950922</v>
+      </c>
+      <c r="Z65" t="n">
         <v>0.05021896804764987</v>
       </c>
-      <c r="V65" t="n">
+      <c r="AA65" t="n">
         <v>1865.499561822273</v>
       </c>
-      <c r="W65" t="n">
+      <c r="AB65" t="n">
         <v>221.858194701114</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AC65" t="n">
         <v>-8.564900557373438</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AD65" t="n">
         <v>5.247073115973366</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AE65" t="n">
+        <v>1.189349410383432</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.822860411702579</v>
+      </c>
+      <c r="AG65" t="n">
         <v>0.1202527212934408</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AH65" t="n">
         <v>7.934625268674909</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AI65" t="n">
         <v>1.667377773524082</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>168571379775.2497</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>21.30569139958152</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66.18771861830042</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>27.90815232372413</v>
+      </c>
+      <c r="C66" t="n">
         <v>3.571193889207815</v>
-      </c>
-      <c r="C66" t="n">
-        <v>27.90815232372413</v>
       </c>
       <c r="D66" t="n">
         <v>1.502033184039599</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.8309019847280388</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6123,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8309019847280388</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6141,51 +7914,78 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.245921147575118</v>
+      </c>
+      <c r="Z66" t="n">
         <v>0.01963192563019495</v>
       </c>
-      <c r="V66" t="n">
+      <c r="AA66" t="n">
         <v>1813.904730364141</v>
       </c>
-      <c r="W66" t="n">
+      <c r="AB66" t="n">
         <v>133.340212169379</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AC66" t="n">
         <v>-2.8002327490981</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AD66" t="n">
         <v>2.129102396816455</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AE66" t="n">
+        <v>0.8342001139072353</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.845033817425519</v>
+      </c>
+      <c r="AG66" t="n">
         <v>0.06650261904096777</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AH66" t="n">
         <v>8.40449574691122</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AI66" t="n">
         <v>1.124538934076214</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>172250271911.213</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>9.656503679878933</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.85471859160208</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>26.49154144135773</v>
+      </c>
+      <c r="C67" t="n">
         <v>3.813661095882745</v>
-      </c>
-      <c r="C67" t="n">
-        <v>26.49154144135773</v>
       </c>
       <c r="D67" t="n">
         <v>1.691522230009478</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1.148556641147982</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6209,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1.148556641147982</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -6227,51 +8027,78 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.246839127163371</v>
+      </c>
+      <c r="Z67" t="n">
         <v>0.02251848971573794</v>
       </c>
-      <c r="V67" t="n">
+      <c r="AA67" t="n">
         <v>1817.718960748199</v>
       </c>
-      <c r="W67" t="n">
+      <c r="AB67" t="n">
         <v>139.2109885145891</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AC67" t="n">
         <v>-3.060644452700787</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AD67" t="n">
         <v>2.426542647739842</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AE67" t="n">
+        <v>0.8485177142946598</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.842758381727853</v>
+      </c>
+      <c r="AG67" t="n">
         <v>0.07007314791346538</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AH67" t="n">
         <v>8.354293452070605</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AI67" t="n">
         <v>1.149923918218327</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>171926986582.8188</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>10.5362610111552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66.29608309198557</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>24.91437454526202</v>
+      </c>
+      <c r="C68" t="n">
         <v>4.432612943819033</v>
-      </c>
-      <c r="C68" t="n">
-        <v>24.91437454526202</v>
       </c>
       <c r="D68" t="n">
         <v>2.416458994822328</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.940470424111047</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6295,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1.940470424111047</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -6313,51 +8140,78 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.249417103903671</v>
+      </c>
+      <c r="Z68" t="n">
         <v>0.02857061409414813</v>
       </c>
-      <c r="V68" t="n">
+      <c r="AA68" t="n">
         <v>1827.3507335351</v>
       </c>
-      <c r="W68" t="n">
+      <c r="AB68" t="n">
         <v>158.7023074897322</v>
       </c>
-      <c r="X68" t="n">
+      <c r="AC68" t="n">
         <v>-3.792604049406814</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AD68" t="n">
         <v>3.013182612607435</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AE68" t="n">
+        <v>0.9030213816801729</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.839089516369053</v>
+      </c>
+      <c r="AG68" t="n">
         <v>0.07966612253987757</v>
       </c>
-      <c r="AA68" t="n">
+      <c r="AH68" t="n">
         <v>8.264353349839952</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AI68" t="n">
         <v>1.229650020650664</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>171401970732.4077</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>12.69604402538735</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65.32452373485688</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>24.40198458959529</v>
+      </c>
+      <c r="C69" t="n">
         <v>4.818150837213522</v>
-      </c>
-      <c r="C69" t="n">
-        <v>24.40198458959529</v>
       </c>
       <c r="D69" t="n">
         <v>2.83944115866238</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2.615899679671924</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6381,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>2.615899679671924</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -6399,51 +8253,78 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.251501493791533</v>
+      </c>
+      <c r="Z69" t="n">
         <v>0.0325884773783547</v>
       </c>
-      <c r="V69" t="n">
+      <c r="AA69" t="n">
         <v>1833.070883285166</v>
       </c>
-      <c r="W69" t="n">
+      <c r="AB69" t="n">
         <v>169.0801681298954</v>
       </c>
-      <c r="X69" t="n">
+      <c r="AC69" t="n">
         <v>-4.41709935748788</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AD69" t="n">
         <v>3.409548023397951</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AE69" t="n">
+        <v>0.9439751530339791</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.836482604555081</v>
+      </c>
+      <c r="AG69" t="n">
         <v>0.08616037513956529</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AH69" t="n">
         <v>8.209032957442462</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AI69" t="n">
         <v>1.293647358636754</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>170980214720.1119</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>14.14090975409012</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>63.37031159981304</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>23.43996495381416</v>
+      </c>
+      <c r="C70" t="n">
         <v>5.076981561592881</v>
-      </c>
-      <c r="C70" t="n">
-        <v>23.43996495381416</v>
       </c>
       <c r="D70" t="n">
         <v>4.034033011020312</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4.078708873759598</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6467,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>4.078708873759598</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6485,28 +8366,55 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.256200824586156</v>
+      </c>
+      <c r="Z70" t="n">
         <v>0.03980131080266931</v>
       </c>
-      <c r="V70" t="n">
+      <c r="AA70" t="n">
         <v>1844.869218212895</v>
       </c>
-      <c r="W70" t="n">
+      <c r="AB70" t="n">
         <v>192.1751435798204</v>
       </c>
-      <c r="X70" t="n">
+      <c r="AC70" t="n">
         <v>-5.701688642009428</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AD70" t="n">
         <v>4.064608656287339</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AE70" t="n">
+        <v>1.015775336861937</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.832566036797534</v>
+      </c>
+      <c r="AG70" t="n">
         <v>0.09862805660520312</v>
       </c>
-      <c r="AA70" t="n">
+      <c r="AH70" t="n">
         <v>8.10149138925423</v>
       </c>
-      <c r="AB70" t="n">
+      <c r="AI70" t="n">
         <v>1.41087388275249</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>170242903581.7379</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>16.98913375236276</v>
       </c>
     </row>
   </sheetData>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
